--- a/databases/xlsx/import_all/import 21.08.xlsx
+++ b/databases/xlsx/import_all/import 21.08.xlsx
@@ -9,8 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="08.21" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="07.21" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Корректировки показаний" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Корректировки показаний" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="519">
   <si>
     <t xml:space="preserve">Организация</t>
   </si>
@@ -2305,884 +2304,6 @@
     <t xml:space="preserve">Корпус 1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Лукьянчиков  А.В. </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут.№ 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Байдерин И.В. </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут.№2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Глиняник Е.П. бут</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> №3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Алиджан ИП        бут </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">№4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Ольховская  В.В. бут </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">№5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Турукало Н.П. </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут №7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Левина ИП </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут.№9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Костенко Е. ИП бут.</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">№10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Воробьева Л.В. </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут.№11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Соскова ИП бутик </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">№ 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Вивсянюк ИП</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> бут№13</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Мыркина Ю.О б</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ут. №14</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Парелюлько П.А. бутик </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">№ 15</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Галета  Е.В. </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут. № 16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Котелевская И.П.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут.№18</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Михайленко  В.Ю. </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут №21</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Чернышева ИП  </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут. №22</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">"Рейманав" ООО </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">(Булавка  Г.А./Кашалаба А.С.</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут. № 25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="19"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Синичкин  Р.В.</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="19"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> бут №26</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Сидоров ИП.</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут.№27</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Кефели  А.В. </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут.№28</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Васильев Г. Ю. ИП </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут.№29</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Антонова Н.П. </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут.№30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Антонова  Н.П.</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут.№31 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Козар Г.В./Козар В.И. </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут. № 33</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Спешкова М.С.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут. №35</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Тарлыгин Дмитрий Валерьевич </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут. №36</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Черкашина О.Е.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут.38/1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Антонова Е.О. </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бутик № 38/2 </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Free zone</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Ненартович И.Ч.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бутик № 38/3 </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Doker</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Щенников Д.Ю.</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут. №38/4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">"РЕСТРО"  ООО  </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут№1м</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Колесник  Е.Ю. бут.</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">№3м</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Сорокин  О.А. </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут №5м</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Булдакова И.П.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">бут. №6М</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРВИС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">магазин "Орвис" </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Дибаева А.О. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">(был Кориненко Л.Р.)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Через цикл</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Шурмелева А.А. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial Cyr"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Подиум(съехал)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мебель ротанг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKKO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Шведова </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">А.В.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">№108</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Бондарь ИП </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">( был Чубаров )</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">№ счетчика</t>
   </si>
   <si>
@@ -3211,7 +2332,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.00&quot;р.&quot;"/>
     <numFmt numFmtId="170" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3421,117 +2542,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="20"/>
-      <name val="Arial Cyr"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="20"/>
-      <name val="Arial Cyr"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="20"/>
-      <name val="Arial Cyr"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial Cyr"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <name val="Arial Cyr"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="19"/>
-      <name val="Arial Cyr"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="19"/>
-      <name val="Arial Cyr"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="20"/>
-      <name val="Arial Cyr"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial Cyr"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <name val="Arial  cyr"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="Arial Cyr"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="20"/>
-      <name val="Arial Cyr"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial Cyr"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="18"/>
-      <name val="Arial Cyr"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial Cyr"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -3682,7 +2692,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="104">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4051,302 +3061,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="2" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="3" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="3" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="28" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4367,15 +3081,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="28" fillId="10" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4396,10 +3102,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4488,12 +3190,12 @@
   <dimension ref="A1:O234"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H123" activeCellId="0" sqref="H123"/>
+      <selection pane="bottomLeft" activeCell="C181" activeCellId="0" sqref="C181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="110.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.52"/>
@@ -4868,7 +3570,9 @@
       <c r="F12" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="H12" s="11" t="n">
         <v>4</v>
       </c>
@@ -4899,7 +3603,9 @@
       <c r="F13" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="H13" s="11" t="n">
         <v>4</v>
       </c>
@@ -5209,7 +3915,9 @@
       <c r="F23" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="6"/>
+      <c r="G23" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="H23" s="11" t="n">
         <v>4</v>
       </c>
@@ -5240,7 +3948,9 @@
       <c r="F24" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="6"/>
+      <c r="G24" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="H24" s="11" t="n">
         <v>4</v>
       </c>
@@ -5519,7 +4229,9 @@
       <c r="F33" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G33" s="6"/>
+      <c r="G33" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="H33" s="11" t="n">
         <v>4</v>
       </c>
@@ -5550,7 +4262,9 @@
       <c r="F34" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="6"/>
+      <c r="G34" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="H34" s="11" t="n">
         <v>4</v>
       </c>
@@ -5612,7 +4326,9 @@
       <c r="F36" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="6"/>
+      <c r="G36" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="H36" s="11" t="n">
         <v>4</v>
       </c>
@@ -5643,7 +4359,9 @@
       <c r="F37" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="G37" s="6"/>
+      <c r="G37" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="H37" s="11" t="n">
         <v>4</v>
       </c>
@@ -6542,7 +5260,9 @@
       <c r="F66" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="G66" s="6"/>
+      <c r="G66" s="6" t="n">
+        <v>11</v>
+      </c>
       <c r="H66" s="11" t="n">
         <v>4</v>
       </c>
@@ -6635,7 +5355,9 @@
       <c r="F69" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G69" s="6"/>
+      <c r="G69" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="H69" s="11" t="n">
         <v>4</v>
       </c>
@@ -6666,7 +5388,9 @@
       <c r="F70" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G70" s="6"/>
+      <c r="G70" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="H70" s="11" t="n">
         <v>4</v>
       </c>
@@ -6883,7 +5607,9 @@
       <c r="F77" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="G77" s="6"/>
+      <c r="G77" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="H77" s="11" t="n">
         <v>4</v>
       </c>
@@ -7069,7 +5795,9 @@
       <c r="F83" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="G83" s="6"/>
+      <c r="G83" s="6" t="n">
+        <v>11</v>
+      </c>
       <c r="H83" s="11" t="n">
         <v>4</v>
       </c>
@@ -7803,7 +6531,9 @@
       <c r="F107" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="G107" s="6"/>
+      <c r="G107" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="H107" s="55" t="n">
         <v>5</v>
       </c>
@@ -7834,7 +6564,9 @@
       <c r="F108" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="G108" s="6"/>
+      <c r="G108" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="H108" s="55" t="n">
         <v>5</v>
       </c>
@@ -8144,7 +6876,9 @@
       <c r="F118" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="G118" s="6"/>
+      <c r="G118" s="6" t="n">
+        <v>13</v>
+      </c>
       <c r="H118" s="55" t="n">
         <v>5</v>
       </c>
@@ -8423,7 +7157,9 @@
       <c r="F127" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="G127" s="6"/>
+      <c r="G127" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="H127" s="55" t="n">
         <v>5</v>
       </c>
@@ -8454,7 +7190,9 @@
       <c r="F128" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="G128" s="6"/>
+      <c r="G128" s="6" t="n">
+        <v>13</v>
+      </c>
       <c r="H128" s="55" t="n">
         <v>5</v>
       </c>
@@ -8578,7 +7316,9 @@
       <c r="F132" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="G132" s="6"/>
+      <c r="G132" s="6" t="n">
+        <v>14</v>
+      </c>
       <c r="H132" s="55" t="n">
         <v>5</v>
       </c>
@@ -8640,7 +7380,9 @@
       <c r="F134" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="G134" s="6"/>
+      <c r="G134" s="6" t="n">
+        <v>14</v>
+      </c>
       <c r="H134" s="55" t="n">
         <v>5</v>
       </c>
@@ -8971,7 +7713,9 @@
       <c r="F145" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="G145" s="6"/>
+      <c r="G145" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="H145" s="74" t="n">
         <v>6</v>
       </c>
@@ -9002,7 +7746,9 @@
       <c r="F146" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="G146" s="6"/>
+      <c r="G146" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="H146" s="74" t="n">
         <v>6</v>
       </c>
@@ -9033,7 +7779,9 @@
       <c r="F147" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="G147" s="6"/>
+      <c r="G147" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="H147" s="74" t="n">
         <v>6</v>
       </c>
@@ -9753,10 +8501,10 @@
         <v>412</v>
       </c>
       <c r="B171" s="81" t="n">
-        <v>127446</v>
+        <v>51774</v>
       </c>
       <c r="C171" s="81" t="n">
-        <v>132226</v>
+        <v>52094</v>
       </c>
       <c r="D171" s="81" t="n">
         <v>1</v>
@@ -9767,7 +8515,9 @@
       <c r="F171" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="G171" s="6"/>
+      <c r="G171" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="H171" s="82" t="n">
         <v>7</v>
       </c>
@@ -9784,10 +8534,10 @@
         <v>412</v>
       </c>
       <c r="B172" s="81" t="n">
-        <v>51774</v>
+        <v>127446</v>
       </c>
       <c r="C172" s="81" t="n">
-        <v>52094</v>
+        <v>132226</v>
       </c>
       <c r="D172" s="81" t="n">
         <v>1</v>
@@ -9798,7 +8548,9 @@
       <c r="F172" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="G172" s="6"/>
+      <c r="G172" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="H172" s="82" t="n">
         <v>7</v>
       </c>
@@ -9984,7 +8736,9 @@
       <c r="F178" s="22" t="s">
         <v>432</v>
       </c>
-      <c r="G178" s="6"/>
+      <c r="G178" s="6" t="n">
+        <v>9</v>
+      </c>
       <c r="H178" s="82" t="n">
         <v>7</v>
       </c>
@@ -10015,7 +8769,9 @@
       <c r="F179" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="G179" s="6"/>
+      <c r="G179" s="6" t="n">
+        <v>9</v>
+      </c>
       <c r="H179" s="82" t="n">
         <v>7</v>
       </c>
@@ -10372,11 +9128,11 @@
       <c r="A191" s="34" t="s">
         <v>468</v>
       </c>
-      <c r="B191" s="42" t="n">
-        <v>62761</v>
-      </c>
-      <c r="C191" s="42" t="n">
-        <v>63603</v>
+      <c r="B191" s="30" t="n">
+        <v>79199</v>
+      </c>
+      <c r="C191" s="30" t="n">
+        <v>80579</v>
       </c>
       <c r="D191" s="42" t="n">
         <v>1</v>
@@ -10403,11 +9159,11 @@
       <c r="A192" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="B192" s="30" t="n">
-        <v>79199</v>
-      </c>
-      <c r="C192" s="30" t="n">
-        <v>80579</v>
+      <c r="B192" s="42" t="n">
+        <v>62761</v>
+      </c>
+      <c r="C192" s="42" t="n">
+        <v>63603</v>
       </c>
       <c r="D192" s="30" t="n">
         <v>1</v>
@@ -10683,10 +9439,10 @@
         <v>498</v>
       </c>
       <c r="B201" s="30" t="n">
-        <v>30930</v>
+        <v>39614</v>
       </c>
       <c r="C201" s="30" t="n">
-        <v>32775</v>
+        <v>41219</v>
       </c>
       <c r="D201" s="31" t="n">
         <v>1</v>
@@ -10697,7 +9453,9 @@
       <c r="F201" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="G201" s="6"/>
+      <c r="G201" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="H201" s="82" t="n">
         <v>7</v>
       </c>
@@ -10714,10 +9472,10 @@
         <v>498</v>
       </c>
       <c r="B202" s="30" t="n">
-        <v>39614</v>
+        <v>30930</v>
       </c>
       <c r="C202" s="30" t="n">
-        <v>41219</v>
+        <v>32775</v>
       </c>
       <c r="D202" s="31" t="n">
         <v>1</v>
@@ -10728,7 +9486,9 @@
       <c r="F202" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="G202" s="6"/>
+      <c r="G202" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="H202" s="82" t="n">
         <v>7</v>
       </c>
@@ -11354,5209 +10114,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1048576"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I76" activeCellId="0" sqref="I76"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="102.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="138.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="89" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="76.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="45.38"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="93" t="n">
-        <v>30048</v>
-      </c>
-      <c r="C2" s="93" t="n">
-        <v>31758</v>
-      </c>
-      <c r="D2" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="94" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="95" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="96" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="93" t="n">
-        <v>71095</v>
-      </c>
-      <c r="C3" s="93" t="n">
-        <v>71203</v>
-      </c>
-      <c r="D3" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="95" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="93" t="n">
-        <v>10362</v>
-      </c>
-      <c r="C4" s="93" t="n">
-        <v>10471</v>
-      </c>
-      <c r="D4" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="96" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="98" t="n">
-        <v>26054</v>
-      </c>
-      <c r="C5" s="98" t="n">
-        <v>26623</v>
-      </c>
-      <c r="D5" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="93" t="n">
-        <v>93204</v>
-      </c>
-      <c r="C6" s="93" t="n">
-        <v>95797</v>
-      </c>
-      <c r="D6" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="94" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="93" t="n">
-        <v>227255</v>
-      </c>
-      <c r="C7" s="93" t="n">
-        <v>231468</v>
-      </c>
-      <c r="D7" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="96" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="93" t="n">
-        <v>37166</v>
-      </c>
-      <c r="C8" s="93" t="n">
-        <v>38403</v>
-      </c>
-      <c r="D8" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="93" t="n">
-        <v>27196</v>
-      </c>
-      <c r="C9" s="93" t="n">
-        <v>27354</v>
-      </c>
-      <c r="D9" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="94" t="n">
-        <v>8383</v>
-      </c>
-      <c r="F9" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="101" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="102" t="n">
-        <v>66414.515</v>
-      </c>
-      <c r="C10" s="102" t="n">
-        <v>66971.813</v>
-      </c>
-      <c r="D10" s="103" t="n">
-        <v>40</v>
-      </c>
-      <c r="E10" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="93" t="n">
-        <v>5536</v>
-      </c>
-      <c r="C11" s="93" t="n">
-        <v>7778</v>
-      </c>
-      <c r="D11" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="93" t="n">
-        <v>34644</v>
-      </c>
-      <c r="C12" s="93" t="n">
-        <v>35177</v>
-      </c>
-      <c r="D12" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="106" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="89" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="107" t="n">
-        <v>38208.7</v>
-      </c>
-      <c r="C13" s="107" t="n">
-        <v>38487.4</v>
-      </c>
-      <c r="D13" s="108" t="n">
-        <v>60</v>
-      </c>
-      <c r="E13" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="88" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="89" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="109" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="110" t="n">
-        <v>9399</v>
-      </c>
-      <c r="C14" s="110" t="n">
-        <v>13410</v>
-      </c>
-      <c r="D14" s="111" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="112" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="113" t="n">
-        <v>10984</v>
-      </c>
-      <c r="C15" s="113" t="n">
-        <v>11649</v>
-      </c>
-      <c r="D15" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="112" t="s">
-        <v>514</v>
-      </c>
-      <c r="B16" s="113" t="n">
-        <v>7019</v>
-      </c>
-      <c r="C16" s="113" t="n">
-        <v>7611</v>
-      </c>
-      <c r="D16" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="87" t="n">
-        <v>70373</v>
-      </c>
-      <c r="F16" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="112" t="s">
-        <v>515</v>
-      </c>
-      <c r="B17" s="113" t="n">
-        <v>12930</v>
-      </c>
-      <c r="C17" s="113" t="n">
-        <v>13739</v>
-      </c>
-      <c r="D17" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="87" t="n">
-        <v>99648</v>
-      </c>
-      <c r="F17" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="112" t="s">
-        <v>516</v>
-      </c>
-      <c r="B18" s="113" t="n">
-        <v>38027</v>
-      </c>
-      <c r="C18" s="113" t="n">
-        <v>38663</v>
-      </c>
-      <c r="D18" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="87" t="n">
-        <v>98600</v>
-      </c>
-      <c r="F18" s="88" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="112" t="s">
-        <v>517</v>
-      </c>
-      <c r="B19" s="113" t="n">
-        <v>88770</v>
-      </c>
-      <c r="C19" s="113" t="n">
-        <v>89200</v>
-      </c>
-      <c r="D19" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="87" t="n">
-        <v>98517</v>
-      </c>
-      <c r="F19" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="112" t="s">
-        <v>518</v>
-      </c>
-      <c r="B20" s="113" t="n">
-        <v>49695</v>
-      </c>
-      <c r="C20" s="113" t="n">
-        <v>50442</v>
-      </c>
-      <c r="D20" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="87" t="n">
-        <v>98627</v>
-      </c>
-      <c r="F20" s="88" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="114" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="113" t="n">
-        <v>75230</v>
-      </c>
-      <c r="C21" s="113" t="n">
-        <v>75492</v>
-      </c>
-      <c r="D21" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="87" t="n">
-        <v>98556</v>
-      </c>
-      <c r="F21" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="112" t="s">
-        <v>519</v>
-      </c>
-      <c r="B22" s="113" t="n">
-        <v>73368</v>
-      </c>
-      <c r="C22" s="113" t="n">
-        <v>73719</v>
-      </c>
-      <c r="D22" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="87" t="n">
-        <v>98503</v>
-      </c>
-      <c r="F22" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" customFormat="false" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="115" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="113" t="n">
-        <v>86649</v>
-      </c>
-      <c r="C23" s="113" t="n">
-        <v>87387</v>
-      </c>
-      <c r="D23" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="87" t="n">
-        <v>98630</v>
-      </c>
-      <c r="F23" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="89" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="115" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="113" t="n">
-        <v>78977</v>
-      </c>
-      <c r="C24" s="113" t="n">
-        <v>79639</v>
-      </c>
-      <c r="D24" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="87" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="89" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="112" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="113" t="n">
-        <v>19403</v>
-      </c>
-      <c r="C25" s="113" t="n">
-        <v>19403</v>
-      </c>
-      <c r="D25" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="87" t="n">
-        <v>8726</v>
-      </c>
-      <c r="F25" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="112" t="s">
-        <v>520</v>
-      </c>
-      <c r="B26" s="113" t="n">
-        <v>139337</v>
-      </c>
-      <c r="C26" s="113" t="n">
-        <v>140669</v>
-      </c>
-      <c r="D26" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="87" t="n">
-        <v>542003</v>
-      </c>
-      <c r="F26" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="112" t="s">
-        <v>521</v>
-      </c>
-      <c r="B27" s="113" t="n">
-        <v>45346</v>
-      </c>
-      <c r="C27" s="113" t="n">
-        <v>45678</v>
-      </c>
-      <c r="D27" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="87" t="n">
-        <v>100986</v>
-      </c>
-      <c r="F27" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="112" t="s">
-        <v>522</v>
-      </c>
-      <c r="B28" s="113" t="n">
-        <v>98646</v>
-      </c>
-      <c r="C28" s="113" t="n">
-        <v>99188</v>
-      </c>
-      <c r="D28" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="87" t="n">
-        <v>70386</v>
-      </c>
-      <c r="F28" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="112" t="s">
-        <v>523</v>
-      </c>
-      <c r="B29" s="113" t="n">
-        <v>58665</v>
-      </c>
-      <c r="C29" s="113" t="n">
-        <v>59123</v>
-      </c>
-      <c r="D29" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="87" t="n">
-        <v>64591</v>
-      </c>
-      <c r="F29" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="116" t="s">
-        <v>524</v>
-      </c>
-      <c r="B30" s="113" t="n">
-        <v>46050</v>
-      </c>
-      <c r="C30" s="113" t="n">
-        <v>47940</v>
-      </c>
-      <c r="D30" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="87" t="n">
-        <v>87125</v>
-      </c>
-      <c r="F30" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="112" t="s">
-        <v>525</v>
-      </c>
-      <c r="B31" s="113" t="n">
-        <v>78935</v>
-      </c>
-      <c r="C31" s="113" t="n">
-        <v>79914</v>
-      </c>
-      <c r="D31" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="87" t="n">
-        <v>87202</v>
-      </c>
-      <c r="F31" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="112" t="s">
-        <v>526</v>
-      </c>
-      <c r="B32" s="113" t="n">
-        <v>33865</v>
-      </c>
-      <c r="C32" s="113" t="n">
-        <v>33989</v>
-      </c>
-      <c r="D32" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="87" t="n">
-        <v>99475</v>
-      </c>
-      <c r="F32" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="112" t="s">
-        <v>527</v>
-      </c>
-      <c r="B33" s="113" t="n">
-        <v>58238</v>
-      </c>
-      <c r="C33" s="113" t="n">
-        <v>58512</v>
-      </c>
-      <c r="D33" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="87" t="n">
-        <v>100985</v>
-      </c>
-      <c r="F33" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="G33" s="89" t="n">
-        <v>3</v>
-      </c>
-      <c r="H33" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="112" t="s">
-        <v>527</v>
-      </c>
-      <c r="B34" s="113" t="n">
-        <v>33404</v>
-      </c>
-      <c r="C34" s="113" t="n">
-        <v>33543</v>
-      </c>
-      <c r="D34" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="87" t="n">
-        <v>100839</v>
-      </c>
-      <c r="F34" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34" s="89" t="n">
-        <v>3</v>
-      </c>
-      <c r="H34" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="112" t="s">
-        <v>528</v>
-      </c>
-      <c r="B35" s="113" t="n">
-        <v>24018</v>
-      </c>
-      <c r="C35" s="113" t="n">
-        <v>24155</v>
-      </c>
-      <c r="D35" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="87" t="n">
-        <v>100976</v>
-      </c>
-      <c r="F35" s="88" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="112" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="113" t="n">
-        <v>41908</v>
-      </c>
-      <c r="C36" s="113" t="n">
-        <v>42134</v>
-      </c>
-      <c r="D36" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="87" t="n">
-        <v>99491</v>
-      </c>
-      <c r="F36" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="G36" s="89" t="n">
-        <v>4</v>
-      </c>
-      <c r="H36" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="112" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="113" t="n">
-        <v>33875</v>
-      </c>
-      <c r="C37" s="113" t="n">
-        <v>34069</v>
-      </c>
-      <c r="D37" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="87" t="n">
-        <v>99470</v>
-      </c>
-      <c r="F37" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="G37" s="89" t="n">
-        <v>4</v>
-      </c>
-      <c r="H37" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="112" t="s">
-        <v>529</v>
-      </c>
-      <c r="B38" s="113" t="n">
-        <v>31988</v>
-      </c>
-      <c r="C38" s="113" t="n">
-        <v>32193</v>
-      </c>
-      <c r="D38" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="87" t="n">
-        <v>99541</v>
-      </c>
-      <c r="F38" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="H38" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="112" t="s">
-        <v>530</v>
-      </c>
-      <c r="B39" s="113" t="n">
-        <v>30575</v>
-      </c>
-      <c r="C39" s="113" t="n">
-        <v>30759</v>
-      </c>
-      <c r="D39" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="87" t="n">
-        <v>99680</v>
-      </c>
-      <c r="F39" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="H39" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="112" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" s="113" t="n">
-        <v>66541</v>
-      </c>
-      <c r="C40" s="113" t="n">
-        <v>66861</v>
-      </c>
-      <c r="D40" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="87" t="n">
-        <v>100829</v>
-      </c>
-      <c r="F40" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="H40" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="117" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="113" t="n">
-        <v>60067</v>
-      </c>
-      <c r="C41" s="113" t="n">
-        <v>60793</v>
-      </c>
-      <c r="D41" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="87" t="n">
-        <v>100980</v>
-      </c>
-      <c r="F41" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="H41" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="112" t="s">
-        <v>531</v>
-      </c>
-      <c r="B42" s="113" t="n">
-        <v>46892</v>
-      </c>
-      <c r="C42" s="113" t="n">
-        <v>47410</v>
-      </c>
-      <c r="D42" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="F42" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="H42" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="118" t="s">
-        <v>532</v>
-      </c>
-      <c r="B43" s="113" t="n">
-        <v>8449</v>
-      </c>
-      <c r="C43" s="113" t="n">
-        <v>8805</v>
-      </c>
-      <c r="D43" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="F43" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="H43" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="112" t="s">
-        <v>533</v>
-      </c>
-      <c r="B44" s="113" t="n">
-        <v>68751</v>
-      </c>
-      <c r="C44" s="113" t="n">
-        <v>68891</v>
-      </c>
-      <c r="D44" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="87" t="n">
-        <v>492735</v>
-      </c>
-      <c r="F44" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="H44" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="112" t="s">
-        <v>534</v>
-      </c>
-      <c r="B45" s="113" t="n">
-        <v>3789</v>
-      </c>
-      <c r="C45" s="113" t="n">
-        <v>4120</v>
-      </c>
-      <c r="D45" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="87" t="n">
-        <v>77006572</v>
-      </c>
-      <c r="F45" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="H45" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="112" t="s">
-        <v>535</v>
-      </c>
-      <c r="B46" s="113" t="n">
-        <v>88320</v>
-      </c>
-      <c r="C46" s="113" t="n">
-        <v>88755</v>
-      </c>
-      <c r="D46" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="87" t="n">
-        <v>503440</v>
-      </c>
-      <c r="F46" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="H46" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="112" t="s">
-        <v>536</v>
-      </c>
-      <c r="B47" s="113" t="n">
-        <v>54708</v>
-      </c>
-      <c r="C47" s="113" t="n">
-        <v>54918</v>
-      </c>
-      <c r="D47" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="87" t="n">
-        <v>492892</v>
-      </c>
-      <c r="F47" s="119" t="s">
-        <v>108</v>
-      </c>
-      <c r="H47" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="112" t="s">
-        <v>537</v>
-      </c>
-      <c r="B48" s="113" t="n">
-        <v>36691</v>
-      </c>
-      <c r="C48" s="113" t="n">
-        <v>36876</v>
-      </c>
-      <c r="D48" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="87" t="n">
-        <v>503014</v>
-      </c>
-      <c r="F48" s="119" t="s">
-        <v>108</v>
-      </c>
-      <c r="H48" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="109" t="s">
-        <v>538</v>
-      </c>
-      <c r="B49" s="110" t="n">
-        <v>35917</v>
-      </c>
-      <c r="C49" s="110" t="n">
-        <v>36202</v>
-      </c>
-      <c r="D49" s="111" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="87" t="n">
-        <v>88031383</v>
-      </c>
-      <c r="F49" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="H49" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="112" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="113" t="n">
-        <v>29241</v>
-      </c>
-      <c r="C50" s="113" t="n">
-        <v>29399</v>
-      </c>
-      <c r="D50" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="87" t="n">
-        <v>16596</v>
-      </c>
-      <c r="F50" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="H50" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="112" t="s">
-        <v>539</v>
-      </c>
-      <c r="B51" s="113" t="n">
-        <v>42279</v>
-      </c>
-      <c r="C51" s="113" t="n">
-        <v>42473</v>
-      </c>
-      <c r="D51" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="87" t="n">
-        <v>88031436</v>
-      </c>
-      <c r="F51" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="H51" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="112" t="s">
-        <v>540</v>
-      </c>
-      <c r="B52" s="120" t="n">
-        <v>62029</v>
-      </c>
-      <c r="C52" s="120" t="n">
-        <v>62881</v>
-      </c>
-      <c r="D52" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="87" t="n">
-        <v>88031413</v>
-      </c>
-      <c r="F52" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="H52" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="112" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53" s="121" t="n">
-        <v>37224</v>
-      </c>
-      <c r="C53" s="121" t="n">
-        <v>39230</v>
-      </c>
-      <c r="D53" s="121" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="106" t="s">
-        <v>119</v>
-      </c>
-      <c r="F53" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="H53" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="112" t="s">
-        <v>541</v>
-      </c>
-      <c r="B54" s="113" t="n">
-        <v>38589</v>
-      </c>
-      <c r="C54" s="113" t="n">
-        <v>38589</v>
-      </c>
-      <c r="D54" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="87" t="n">
-        <v>4369</v>
-      </c>
-      <c r="F54" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="H54" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="112" t="s">
-        <v>542</v>
-      </c>
-      <c r="B55" s="113" t="n">
-        <v>36462</v>
-      </c>
-      <c r="C55" s="113" t="n">
-        <v>36462</v>
-      </c>
-      <c r="D55" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="87" t="n">
-        <v>1400</v>
-      </c>
-      <c r="F55" s="88" t="s">
-        <v>543</v>
-      </c>
-      <c r="H55" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="112" t="s">
-        <v>544</v>
-      </c>
-      <c r="B56" s="113" t="n">
-        <v>43342</v>
-      </c>
-      <c r="C56" s="113" t="n">
-        <v>43342</v>
-      </c>
-      <c r="D56" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="87" t="n">
-        <v>2328</v>
-      </c>
-      <c r="F56" s="88" t="s">
-        <v>545</v>
-      </c>
-      <c r="H56" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="112" t="s">
-        <v>546</v>
-      </c>
-      <c r="B57" s="113" t="n">
-        <v>77142</v>
-      </c>
-      <c r="C57" s="113" t="n">
-        <v>77142</v>
-      </c>
-      <c r="D57" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="87" t="n">
-        <v>6910</v>
-      </c>
-      <c r="F57" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="H57" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="117" t="s">
-        <v>547</v>
-      </c>
-      <c r="B58" s="113" t="n">
-        <v>8514</v>
-      </c>
-      <c r="C58" s="113" t="n">
-        <v>8628</v>
-      </c>
-      <c r="D58" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="F58" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="H58" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="114" t="s">
-        <v>125</v>
-      </c>
-      <c r="B59" s="113" t="n">
-        <v>25281</v>
-      </c>
-      <c r="C59" s="113" t="n">
-        <v>25757</v>
-      </c>
-      <c r="D59" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="87" t="s">
-        <v>126</v>
-      </c>
-      <c r="F59" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="H59" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I59" s="6"/>
-    </row>
-    <row r="60" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="112" t="s">
-        <v>548</v>
-      </c>
-      <c r="B60" s="113" t="n">
-        <v>7086</v>
-      </c>
-      <c r="C60" s="113" t="n">
-        <v>7086</v>
-      </c>
-      <c r="D60" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="F60" s="88" t="s">
-        <v>130</v>
-      </c>
-      <c r="H60" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I60" s="6"/>
-    </row>
-    <row r="61" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="112" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="113" t="n">
-        <v>38387</v>
-      </c>
-      <c r="C61" s="113" t="n">
-        <v>38561</v>
-      </c>
-      <c r="D61" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="F61" s="88" t="s">
-        <v>133</v>
-      </c>
-      <c r="H61" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I61" s="6"/>
-    </row>
-    <row r="62" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B62" s="113" t="n">
-        <v>4854</v>
-      </c>
-      <c r="C62" s="113" t="n">
-        <v>5035</v>
-      </c>
-      <c r="D62" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="87" t="s">
-        <v>135</v>
-      </c>
-      <c r="F62" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="H62" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I62" s="6"/>
-    </row>
-    <row r="63" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="112" t="s">
-        <v>549</v>
-      </c>
-      <c r="B63" s="113" t="n">
-        <v>22423</v>
-      </c>
-      <c r="C63" s="113" t="n">
-        <v>22448</v>
-      </c>
-      <c r="D63" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" s="87" t="n">
-        <v>530958</v>
-      </c>
-      <c r="F63" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="H63" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I63" s="6"/>
-    </row>
-    <row r="64" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="112" t="s">
-        <v>550</v>
-      </c>
-      <c r="B64" s="113" t="n">
-        <v>19214</v>
-      </c>
-      <c r="C64" s="113" t="n">
-        <v>19428</v>
-      </c>
-      <c r="D64" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" s="87" t="n">
-        <v>607637</v>
-      </c>
-      <c r="F64" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="H64" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I64" s="6"/>
-    </row>
-    <row r="65" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="B65" s="113" t="n">
-        <v>14491</v>
-      </c>
-      <c r="C65" s="113" t="n">
-        <v>14715</v>
-      </c>
-      <c r="D65" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="87" t="n">
-        <v>56067</v>
-      </c>
-      <c r="F65" s="88" t="s">
-        <v>142</v>
-      </c>
-      <c r="H65" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I65" s="6"/>
-    </row>
-    <row r="66" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="122" t="s">
-        <v>143</v>
-      </c>
-      <c r="B66" s="123" t="n">
-        <v>35868.2</v>
-      </c>
-      <c r="C66" s="123" t="n">
-        <v>36255.7</v>
-      </c>
-      <c r="D66" s="86" t="n">
-        <v>40</v>
-      </c>
-      <c r="E66" s="87" t="n">
-        <v>1535390</v>
-      </c>
-      <c r="F66" s="88" t="s">
-        <v>144</v>
-      </c>
-      <c r="H66" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I66" s="6"/>
-    </row>
-    <row r="67" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="116" t="s">
-        <v>145</v>
-      </c>
-      <c r="B67" s="124" t="n">
-        <v>1408.41</v>
-      </c>
-      <c r="C67" s="124" t="n">
-        <v>1704.92</v>
-      </c>
-      <c r="D67" s="124" t="n">
-        <v>50</v>
-      </c>
-      <c r="E67" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="F67" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="H67" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I67" s="6"/>
-    </row>
-    <row r="68" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="116" t="s">
-        <v>551</v>
-      </c>
-      <c r="B68" s="125" t="n">
-        <v>821928</v>
-      </c>
-      <c r="C68" s="125" t="n">
-        <v>821928</v>
-      </c>
-      <c r="D68" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="87" t="n">
-        <v>399479</v>
-      </c>
-      <c r="F68" s="88" t="s">
-        <v>552</v>
-      </c>
-      <c r="H68" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I68" s="6"/>
-    </row>
-    <row r="69" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="112" t="s">
-        <v>148</v>
-      </c>
-      <c r="B69" s="126" t="n">
-        <v>53229</v>
-      </c>
-      <c r="C69" s="126" t="n">
-        <v>53775</v>
-      </c>
-      <c r="D69" s="126" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" s="87" t="s">
-        <v>149</v>
-      </c>
-      <c r="F69" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="H69" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I69" s="6"/>
-    </row>
-    <row r="70" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="127" t="s">
-        <v>151</v>
-      </c>
-      <c r="B70" s="113" t="n">
-        <v>75069</v>
-      </c>
-      <c r="C70" s="113" t="n">
-        <v>76050</v>
-      </c>
-      <c r="D70" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="F70" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="G70" s="89" t="n">
-        <v>11</v>
-      </c>
-      <c r="H70" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I70" s="6"/>
-    </row>
-    <row r="71" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="112" t="s">
-        <v>154</v>
-      </c>
-      <c r="B71" s="113" t="n">
-        <v>24907</v>
-      </c>
-      <c r="C71" s="113" t="n">
-        <v>25207</v>
-      </c>
-      <c r="D71" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F71" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="H71" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I71" s="6"/>
-    </row>
-    <row r="72" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="112" t="s">
-        <v>553</v>
-      </c>
-      <c r="B72" s="113" t="n">
-        <v>4780</v>
-      </c>
-      <c r="C72" s="113" t="n">
-        <v>6160</v>
-      </c>
-      <c r="D72" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" s="87" t="s">
-        <v>158</v>
-      </c>
-      <c r="F72" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="H72" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I72" s="6"/>
-    </row>
-    <row r="73" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="128" t="s">
-        <v>160</v>
-      </c>
-      <c r="B73" s="129" t="n">
-        <v>27409.8</v>
-      </c>
-      <c r="C73" s="129" t="n">
-        <v>27753.2</v>
-      </c>
-      <c r="D73" s="113" t="n">
-        <v>30</v>
-      </c>
-      <c r="E73" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="F73" s="88" t="s">
-        <v>162</v>
-      </c>
-      <c r="G73" s="89" t="n">
-        <v>5</v>
-      </c>
-      <c r="H73" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I73" s="6"/>
-    </row>
-    <row r="74" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="128" t="s">
-        <v>160</v>
-      </c>
-      <c r="B74" s="125" t="n">
-        <v>1204</v>
-      </c>
-      <c r="C74" s="125" t="n">
-        <v>5258</v>
-      </c>
-      <c r="D74" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E74" s="87" t="s">
-        <v>163</v>
-      </c>
-      <c r="F74" s="88" t="s">
-        <v>162</v>
-      </c>
-      <c r="G74" s="89" t="n">
-        <v>5</v>
-      </c>
-      <c r="H74" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I74" s="6"/>
-      <c r="J74" s="113" t="n">
-        <v>1204</v>
-      </c>
-      <c r="K74" s="113" t="n">
-        <v>5258</v>
-      </c>
-      <c r="L74" s="6" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="112" t="s">
-        <v>164</v>
-      </c>
-      <c r="B75" s="113" t="n">
-        <v>89022</v>
-      </c>
-      <c r="C75" s="113" t="n">
-        <v>90700</v>
-      </c>
-      <c r="D75" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" s="87" t="s">
-        <v>165</v>
-      </c>
-      <c r="F75" s="88" t="s">
-        <v>166</v>
-      </c>
-      <c r="H75" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I75" s="6"/>
-    </row>
-    <row r="76" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="112" t="s">
-        <v>167</v>
-      </c>
-      <c r="B76" s="30" t="n">
-        <v>99989</v>
-      </c>
-      <c r="C76" s="113" t="n">
-        <v>2585</v>
-      </c>
-      <c r="D76" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" s="87" t="s">
-        <v>168</v>
-      </c>
-      <c r="F76" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="H76" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I76" s="6"/>
-      <c r="J76" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" s="113" t="n">
-        <v>2585</v>
-      </c>
-      <c r="L76" s="6" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="130" t="s">
-        <v>170</v>
-      </c>
-      <c r="B77" s="121" t="n">
-        <v>23792</v>
-      </c>
-      <c r="C77" s="121" t="n">
-        <v>24138</v>
-      </c>
-      <c r="D77" s="121" t="n">
-        <v>1</v>
-      </c>
-      <c r="E77" s="87" t="s">
-        <v>171</v>
-      </c>
-      <c r="F77" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="H77" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I77" s="6"/>
-    </row>
-    <row r="78" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="130" t="s">
-        <v>173</v>
-      </c>
-      <c r="B78" s="121" t="n">
-        <v>6104</v>
-      </c>
-      <c r="C78" s="121" t="n">
-        <v>6404</v>
-      </c>
-      <c r="D78" s="121" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" s="87" t="s">
-        <v>174</v>
-      </c>
-      <c r="F78" s="88" t="s">
-        <v>175</v>
-      </c>
-      <c r="H78" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I78" s="6"/>
-    </row>
-    <row r="79" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="131" t="s">
-        <v>176</v>
-      </c>
-      <c r="B79" s="121" t="n">
-        <v>14523</v>
-      </c>
-      <c r="C79" s="121" t="n">
-        <v>14812</v>
-      </c>
-      <c r="D79" s="121" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" s="132" t="s">
-        <v>177</v>
-      </c>
-      <c r="F79" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="H79" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I79" s="6"/>
-    </row>
-    <row r="80" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="133" t="s">
-        <v>179</v>
-      </c>
-      <c r="B80" s="113" t="n">
-        <v>81894</v>
-      </c>
-      <c r="C80" s="113" t="n">
-        <v>83027</v>
-      </c>
-      <c r="D80" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E80" s="87" t="s">
-        <v>180</v>
-      </c>
-      <c r="F80" s="88" t="s">
-        <v>181</v>
-      </c>
-      <c r="H80" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I80" s="6"/>
-    </row>
-    <row r="81" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="112" t="s">
-        <v>182</v>
-      </c>
-      <c r="B81" s="126" t="n">
-        <v>60370</v>
-      </c>
-      <c r="C81" s="126" t="n">
-        <v>61379</v>
-      </c>
-      <c r="D81" s="126" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" s="87" t="s">
-        <v>183</v>
-      </c>
-      <c r="F81" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="G81" s="89" t="n">
-        <v>12</v>
-      </c>
-      <c r="H81" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I81" s="6"/>
-    </row>
-    <row r="82" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="112" t="s">
-        <v>185</v>
-      </c>
-      <c r="B82" s="113" t="n">
-        <v>28345</v>
-      </c>
-      <c r="C82" s="113" t="n">
-        <v>28599</v>
-      </c>
-      <c r="D82" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E82" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="F82" s="88" t="s">
-        <v>187</v>
-      </c>
-      <c r="H82" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I82" s="6"/>
-    </row>
-    <row r="83" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="112" t="s">
-        <v>188</v>
-      </c>
-      <c r="B83" s="113" t="n">
-        <v>85282</v>
-      </c>
-      <c r="C83" s="113" t="n">
-        <v>86347</v>
-      </c>
-      <c r="D83" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" s="87" t="s">
-        <v>189</v>
-      </c>
-      <c r="F83" s="88" t="s">
-        <v>187</v>
-      </c>
-      <c r="H83" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I83" s="6"/>
-    </row>
-    <row r="84" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="112" t="s">
-        <v>190</v>
-      </c>
-      <c r="B84" s="113" t="n">
-        <v>117007</v>
-      </c>
-      <c r="C84" s="113" t="n">
-        <v>118238</v>
-      </c>
-      <c r="D84" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="F84" s="88" t="s">
-        <v>192</v>
-      </c>
-      <c r="H84" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I84" s="6"/>
-    </row>
-    <row r="85" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="112" t="s">
-        <v>193</v>
-      </c>
-      <c r="B85" s="134" t="n">
-        <v>23282</v>
-      </c>
-      <c r="C85" s="134" t="n">
-        <v>24254</v>
-      </c>
-      <c r="D85" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E85" s="87" t="n">
-        <v>34431</v>
-      </c>
-      <c r="F85" s="88" t="s">
-        <v>194</v>
-      </c>
-      <c r="H85" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I85" s="6"/>
-    </row>
-    <row r="86" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="135" t="s">
-        <v>195</v>
-      </c>
-      <c r="B86" s="134" t="n">
-        <v>70972</v>
-      </c>
-      <c r="C86" s="134" t="n">
-        <v>72276</v>
-      </c>
-      <c r="D86" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F86" s="88" t="s">
-        <v>197</v>
-      </c>
-      <c r="H86" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I86" s="6"/>
-    </row>
-    <row r="87" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="B87" s="134" t="n">
-        <v>34953</v>
-      </c>
-      <c r="C87" s="134" t="n">
-        <v>35623</v>
-      </c>
-      <c r="D87" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E87" s="106" t="s">
-        <v>198</v>
-      </c>
-      <c r="F87" s="88" t="s">
-        <v>199</v>
-      </c>
-      <c r="G87" s="89" t="n">
-        <v>11</v>
-      </c>
-      <c r="H87" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I87" s="6"/>
-    </row>
-    <row r="88" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="96" t="s">
-        <v>555</v>
-      </c>
-      <c r="B88" s="134" t="n">
-        <v>40972</v>
-      </c>
-      <c r="C88" s="134" t="n">
-        <v>41826</v>
-      </c>
-      <c r="D88" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E88" s="87" t="s">
-        <v>201</v>
-      </c>
-      <c r="F88" s="88" t="s">
-        <v>202</v>
-      </c>
-      <c r="H88" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I88" s="6"/>
-    </row>
-    <row r="89" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="135" t="s">
-        <v>203</v>
-      </c>
-      <c r="B89" s="93" t="n">
-        <v>66552</v>
-      </c>
-      <c r="C89" s="93" t="n">
-        <v>67575</v>
-      </c>
-      <c r="D89" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="94" t="s">
-        <v>204</v>
-      </c>
-      <c r="F89" s="95" t="s">
-        <v>205</v>
-      </c>
-      <c r="H89" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I89" s="6"/>
-    </row>
-    <row r="90" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="136" t="s">
-        <v>206</v>
-      </c>
-      <c r="B90" s="134" t="n">
-        <v>80875</v>
-      </c>
-      <c r="C90" s="134" t="n">
-        <v>82377</v>
-      </c>
-      <c r="D90" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E90" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="F90" s="88" t="s">
-        <v>208</v>
-      </c>
-      <c r="H90" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I90" s="6"/>
-    </row>
-    <row r="91" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="112" t="s">
-        <v>209</v>
-      </c>
-      <c r="B91" s="110" t="n">
-        <v>20881</v>
-      </c>
-      <c r="C91" s="110" t="n">
-        <v>21731</v>
-      </c>
-      <c r="D91" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E91" s="87" t="s">
-        <v>210</v>
-      </c>
-      <c r="F91" s="88" t="s">
-        <v>211</v>
-      </c>
-      <c r="H91" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I91" s="6"/>
-    </row>
-    <row r="92" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="112" t="s">
-        <v>212</v>
-      </c>
-      <c r="B92" s="134" t="n">
-        <v>69247</v>
-      </c>
-      <c r="C92" s="134" t="n">
-        <v>70396</v>
-      </c>
-      <c r="D92" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E92" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="F92" s="88" t="s">
-        <v>214</v>
-      </c>
-      <c r="H92" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I92" s="6"/>
-    </row>
-    <row r="93" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="112" t="s">
-        <v>215</v>
-      </c>
-      <c r="B93" s="134" t="n">
-        <v>41540</v>
-      </c>
-      <c r="C93" s="134" t="n">
-        <v>42335</v>
-      </c>
-      <c r="D93" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" s="87" t="s">
-        <v>216</v>
-      </c>
-      <c r="F93" s="88" t="s">
-        <v>217</v>
-      </c>
-      <c r="H93" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I93" s="6"/>
-    </row>
-    <row r="94" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="136" t="s">
-        <v>218</v>
-      </c>
-      <c r="B94" s="113" t="n">
-        <v>376906</v>
-      </c>
-      <c r="C94" s="113" t="n">
-        <v>376932</v>
-      </c>
-      <c r="D94" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E94" s="87" t="s">
-        <v>219</v>
-      </c>
-      <c r="F94" s="88" t="s">
-        <v>220</v>
-      </c>
-      <c r="H94" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I94" s="6"/>
-    </row>
-    <row r="95" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="136" t="s">
-        <v>221</v>
-      </c>
-      <c r="B95" s="113" t="n">
-        <v>52335</v>
-      </c>
-      <c r="C95" s="113" t="n">
-        <v>52919</v>
-      </c>
-      <c r="D95" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E95" s="87" t="s">
-        <v>222</v>
-      </c>
-      <c r="F95" s="88" t="s">
-        <v>223</v>
-      </c>
-      <c r="H95" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I95" s="6"/>
-    </row>
-    <row r="96" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="112" t="s">
-        <v>224</v>
-      </c>
-      <c r="B96" s="113" t="n">
-        <v>19323</v>
-      </c>
-      <c r="C96" s="113" t="n">
-        <v>19323</v>
-      </c>
-      <c r="D96" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" s="87" t="n">
-        <v>282335</v>
-      </c>
-      <c r="F96" s="88" t="s">
-        <v>225</v>
-      </c>
-      <c r="H96" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I96" s="6"/>
-    </row>
-    <row r="97" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="137" t="s">
-        <v>226</v>
-      </c>
-      <c r="B97" s="113" t="n">
-        <v>92</v>
-      </c>
-      <c r="C97" s="113" t="n">
-        <v>92</v>
-      </c>
-      <c r="D97" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E97" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="F97" s="138" t="s">
-        <v>226</v>
-      </c>
-      <c r="H97" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I97" s="6"/>
-    </row>
-    <row r="98" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="127" t="s">
-        <v>228</v>
-      </c>
-      <c r="B98" s="113" t="n">
-        <v>14182</v>
-      </c>
-      <c r="C98" s="113" t="n">
-        <v>14196</v>
-      </c>
-      <c r="D98" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E98" s="87" t="s">
-        <v>229</v>
-      </c>
-      <c r="F98" s="138" t="s">
-        <v>226</v>
-      </c>
-      <c r="H98" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="6"/>
-      <c r="B99" s="139"/>
-      <c r="C99" s="139"/>
-      <c r="D99" s="139"/>
-      <c r="E99" s="139"/>
-      <c r="F99" s="6"/>
-      <c r="I99" s="6"/>
-    </row>
-    <row r="100" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="140" t="s">
-        <v>230</v>
-      </c>
-      <c r="B100" s="93" t="n">
-        <v>104226</v>
-      </c>
-      <c r="C100" s="93" t="n">
-        <v>106185</v>
-      </c>
-      <c r="D100" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E100" s="94" t="s">
-        <v>231</v>
-      </c>
-      <c r="F100" s="95" t="s">
-        <v>230</v>
-      </c>
-      <c r="H100" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="141" t="s">
-        <v>233</v>
-      </c>
-      <c r="B101" s="93" t="n">
-        <v>324990</v>
-      </c>
-      <c r="C101" s="93" t="n">
-        <v>325997</v>
-      </c>
-      <c r="D101" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E101" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="F101" s="142" t="s">
-        <v>235</v>
-      </c>
-      <c r="H101" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I101" s="6"/>
-    </row>
-    <row r="102" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="143" t="s">
-        <v>236</v>
-      </c>
-      <c r="B102" s="93" t="n">
-        <v>389121</v>
-      </c>
-      <c r="C102" s="93" t="n">
-        <v>398840</v>
-      </c>
-      <c r="D102" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E102" s="94" t="s">
-        <v>237</v>
-      </c>
-      <c r="F102" s="142" t="s">
-        <v>238</v>
-      </c>
-      <c r="H102" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I102" s="6"/>
-    </row>
-    <row r="103" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="141" t="s">
-        <v>239</v>
-      </c>
-      <c r="B103" s="93" t="n">
-        <v>13970</v>
-      </c>
-      <c r="C103" s="93" t="n">
-        <v>14366</v>
-      </c>
-      <c r="D103" s="97" t="n">
-        <v>60</v>
-      </c>
-      <c r="E103" s="94" t="s">
-        <v>240</v>
-      </c>
-      <c r="F103" s="142" t="s">
-        <v>241</v>
-      </c>
-      <c r="H103" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I103" s="6"/>
-    </row>
-    <row r="104" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="141" t="s">
-        <v>242</v>
-      </c>
-      <c r="B104" s="93" t="n">
-        <v>125764</v>
-      </c>
-      <c r="C104" s="93" t="n">
-        <v>126046</v>
-      </c>
-      <c r="D104" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E104" s="94" t="s">
-        <v>243</v>
-      </c>
-      <c r="F104" s="144" t="s">
-        <v>244</v>
-      </c>
-      <c r="H104" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I104" s="6"/>
-    </row>
-    <row r="105" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="141" t="s">
-        <v>245</v>
-      </c>
-      <c r="B105" s="93" t="n">
-        <v>44716</v>
-      </c>
-      <c r="C105" s="93" t="n">
-        <v>45308</v>
-      </c>
-      <c r="D105" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E105" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="F105" s="142" t="s">
-        <v>247</v>
-      </c>
-      <c r="H105" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I105" s="6"/>
-    </row>
-    <row r="106" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="145" t="s">
-        <v>248</v>
-      </c>
-      <c r="B106" s="93" t="n">
-        <v>153727</v>
-      </c>
-      <c r="C106" s="93" t="n">
-        <v>153727</v>
-      </c>
-      <c r="D106" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E106" s="94" t="n">
-        <v>5006</v>
-      </c>
-      <c r="F106" s="142" t="s">
-        <v>556</v>
-      </c>
-      <c r="H106" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I106" s="6"/>
-    </row>
-    <row r="107" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="141" t="s">
-        <v>250</v>
-      </c>
-      <c r="B107" s="93" t="n">
-        <v>261646</v>
-      </c>
-      <c r="C107" s="93" t="n">
-        <v>263043</v>
-      </c>
-      <c r="D107" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E107" s="94" t="s">
-        <v>251</v>
-      </c>
-      <c r="F107" s="142" t="s">
-        <v>557</v>
-      </c>
-      <c r="H107" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I107" s="6"/>
-    </row>
-    <row r="108" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="141" t="s">
-        <v>253</v>
-      </c>
-      <c r="B108" s="93" t="n">
-        <v>4455</v>
-      </c>
-      <c r="C108" s="93" t="n">
-        <v>4840</v>
-      </c>
-      <c r="D108" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E108" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="F108" s="142" t="s">
-        <v>255</v>
-      </c>
-      <c r="H108" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I108" s="6"/>
-    </row>
-    <row r="109" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="141" t="s">
-        <v>256</v>
-      </c>
-      <c r="B109" s="93" t="n">
-        <v>466288</v>
-      </c>
-      <c r="C109" s="93" t="n">
-        <v>469444</v>
-      </c>
-      <c r="D109" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E109" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="F109" s="142" t="s">
-        <v>258</v>
-      </c>
-      <c r="H109" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I109" s="6"/>
-    </row>
-    <row r="110" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="141" t="s">
-        <v>259</v>
-      </c>
-      <c r="B110" s="93" t="n">
-        <v>555766</v>
-      </c>
-      <c r="C110" s="93" t="n">
-        <v>567192.24</v>
-      </c>
-      <c r="D110" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E110" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="F110" s="142" t="s">
-        <v>261</v>
-      </c>
-      <c r="H110" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I110" s="6"/>
-    </row>
-    <row r="111" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="146" t="s">
-        <v>262</v>
-      </c>
-      <c r="B111" s="147" t="n">
-        <v>57272</v>
-      </c>
-      <c r="C111" s="147" t="n">
-        <v>63279</v>
-      </c>
-      <c r="D111" s="148" t="n">
-        <v>1</v>
-      </c>
-      <c r="E111" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="F111" s="142" t="s">
-        <v>264</v>
-      </c>
-      <c r="G111" s="89" t="n">
-        <v>6</v>
-      </c>
-      <c r="H111" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I111" s="6"/>
-    </row>
-    <row r="112" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="146" t="s">
-        <v>262</v>
-      </c>
-      <c r="B112" s="93" t="n">
-        <v>3510</v>
-      </c>
-      <c r="C112" s="93" t="n">
-        <v>3809</v>
-      </c>
-      <c r="D112" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="E112" s="149" t="n">
-        <v>27372</v>
-      </c>
-      <c r="F112" s="144" t="s">
-        <v>265</v>
-      </c>
-      <c r="G112" s="89" t="n">
-        <v>6</v>
-      </c>
-      <c r="H112" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I112" s="6"/>
-    </row>
-    <row r="113" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="150" t="s">
-        <v>266</v>
-      </c>
-      <c r="B113" s="151" t="n">
-        <v>94878</v>
-      </c>
-      <c r="C113" s="151" t="n">
-        <v>96908</v>
-      </c>
-      <c r="D113" s="152" t="n">
-        <v>1</v>
-      </c>
-      <c r="E113" s="94" t="s">
-        <v>267</v>
-      </c>
-      <c r="F113" s="142" t="s">
-        <v>268</v>
-      </c>
-      <c r="H113" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I113" s="6"/>
-    </row>
-    <row r="114" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="141" t="s">
-        <v>269</v>
-      </c>
-      <c r="B114" s="93" t="n">
-        <v>40906</v>
-      </c>
-      <c r="C114" s="93" t="n">
-        <v>41740</v>
-      </c>
-      <c r="D114" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E114" s="94" t="n">
-        <v>101522115</v>
-      </c>
-      <c r="F114" s="142" t="s">
-        <v>270</v>
-      </c>
-      <c r="H114" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I114" s="6"/>
-    </row>
-    <row r="115" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="141" t="s">
-        <v>271</v>
-      </c>
-      <c r="B115" s="93" t="n">
-        <v>20218</v>
-      </c>
-      <c r="C115" s="93" t="n">
-        <v>20615</v>
-      </c>
-      <c r="D115" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E115" s="94" t="s">
-        <v>272</v>
-      </c>
-      <c r="F115" s="142" t="s">
-        <v>273</v>
-      </c>
-      <c r="H115" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I115" s="6"/>
-    </row>
-    <row r="116" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="141" t="s">
-        <v>274</v>
-      </c>
-      <c r="B116" s="93" t="n">
-        <v>27526</v>
-      </c>
-      <c r="C116" s="93" t="n">
-        <v>27856</v>
-      </c>
-      <c r="D116" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E116" s="94" t="s">
-        <v>275</v>
-      </c>
-      <c r="F116" s="142" t="s">
-        <v>276</v>
-      </c>
-      <c r="H116" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I116" s="6"/>
-    </row>
-    <row r="117" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="141" t="s">
-        <v>277</v>
-      </c>
-      <c r="B117" s="93" t="n">
-        <v>251227</v>
-      </c>
-      <c r="C117" s="93" t="n">
-        <v>252647</v>
-      </c>
-      <c r="D117" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E117" s="94" t="s">
-        <v>278</v>
-      </c>
-      <c r="F117" s="142" t="s">
-        <v>279</v>
-      </c>
-      <c r="H117" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I117" s="6"/>
-    </row>
-    <row r="118" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="141" t="s">
-        <v>280</v>
-      </c>
-      <c r="B118" s="93" t="n">
-        <v>399994</v>
-      </c>
-      <c r="C118" s="93" t="n">
-        <v>399994</v>
-      </c>
-      <c r="D118" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E118" s="94" t="s">
-        <v>281</v>
-      </c>
-      <c r="F118" s="142" t="s">
-        <v>282</v>
-      </c>
-      <c r="H118" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I118" s="6"/>
-    </row>
-    <row r="119" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="141" t="s">
-        <v>283</v>
-      </c>
-      <c r="B119" s="93" t="n">
-        <v>80795</v>
-      </c>
-      <c r="C119" s="93" t="n">
-        <v>80795</v>
-      </c>
-      <c r="D119" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E119" s="94" t="s">
-        <v>284</v>
-      </c>
-      <c r="F119" s="142" t="s">
-        <v>285</v>
-      </c>
-      <c r="H119" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I119" s="6"/>
-    </row>
-    <row r="120" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="141" t="s">
-        <v>286</v>
-      </c>
-      <c r="B120" s="93" t="n">
-        <v>201518</v>
-      </c>
-      <c r="C120" s="93" t="n">
-        <v>202030</v>
-      </c>
-      <c r="D120" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E120" s="94" t="s">
-        <v>287</v>
-      </c>
-      <c r="F120" s="142" t="s">
-        <v>288</v>
-      </c>
-      <c r="H120" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I120" s="6"/>
-    </row>
-    <row r="121" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="141" t="s">
-        <v>289</v>
-      </c>
-      <c r="B121" s="93" t="n">
-        <v>348441</v>
-      </c>
-      <c r="C121" s="93" t="n">
-        <v>349365</v>
-      </c>
-      <c r="D121" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E121" s="94" t="s">
-        <v>290</v>
-      </c>
-      <c r="F121" s="142" t="s">
-        <v>291</v>
-      </c>
-      <c r="H121" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I121" s="6"/>
-    </row>
-    <row r="122" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="141" t="s">
-        <v>292</v>
-      </c>
-      <c r="B122" s="93" t="n">
-        <v>290045</v>
-      </c>
-      <c r="C122" s="93" t="n">
-        <v>292010</v>
-      </c>
-      <c r="D122" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" s="94" t="s">
-        <v>293</v>
-      </c>
-      <c r="F122" s="142" t="s">
-        <v>294</v>
-      </c>
-      <c r="G122" s="89" t="n">
-        <v>13</v>
-      </c>
-      <c r="H122" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I122" s="6"/>
-    </row>
-    <row r="123" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="141" t="s">
-        <v>295</v>
-      </c>
-      <c r="B123" s="93" t="n">
-        <v>392079</v>
-      </c>
-      <c r="C123" s="93" t="n">
-        <v>392079</v>
-      </c>
-      <c r="D123" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E123" s="94" t="n">
-        <v>806</v>
-      </c>
-      <c r="F123" s="142" t="s">
-        <v>296</v>
-      </c>
-      <c r="H123" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I123" s="6"/>
-    </row>
-    <row r="124" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="141" t="s">
-        <v>297</v>
-      </c>
-      <c r="B124" s="93" t="n">
-        <v>134437</v>
-      </c>
-      <c r="C124" s="93" t="n">
-        <v>137279</v>
-      </c>
-      <c r="D124" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" s="94" t="s">
-        <v>298</v>
-      </c>
-      <c r="F124" s="142" t="s">
-        <v>299</v>
-      </c>
-      <c r="H124" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I124" s="6"/>
-    </row>
-    <row r="125" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="141" t="s">
-        <v>300</v>
-      </c>
-      <c r="B125" s="93" t="n">
-        <v>29110</v>
-      </c>
-      <c r="C125" s="93" t="n">
-        <v>29110</v>
-      </c>
-      <c r="D125" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E125" s="94" t="n">
-        <v>2125</v>
-      </c>
-      <c r="F125" s="142" t="s">
-        <v>301</v>
-      </c>
-      <c r="H125" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I125" s="6"/>
-    </row>
-    <row r="126" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="141" t="s">
-        <v>302</v>
-      </c>
-      <c r="B126" s="93" t="n">
-        <v>87208</v>
-      </c>
-      <c r="C126" s="93" t="n">
-        <v>88042</v>
-      </c>
-      <c r="D126" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E126" s="94" t="s">
-        <v>303</v>
-      </c>
-      <c r="F126" s="142" t="s">
-        <v>304</v>
-      </c>
-      <c r="H126" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I126" s="6"/>
-    </row>
-    <row r="127" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="141" t="s">
-        <v>305</v>
-      </c>
-      <c r="B127" s="93" t="n">
-        <v>294374</v>
-      </c>
-      <c r="C127" s="93" t="n">
-        <v>295270</v>
-      </c>
-      <c r="D127" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E127" s="94" t="s">
-        <v>306</v>
-      </c>
-      <c r="F127" s="142" t="s">
-        <v>307</v>
-      </c>
-      <c r="H127" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I127" s="6"/>
-    </row>
-    <row r="128" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="141" t="s">
-        <v>308</v>
-      </c>
-      <c r="B128" s="93" t="n">
-        <v>22763</v>
-      </c>
-      <c r="C128" s="93" t="n">
-        <v>23477</v>
-      </c>
-      <c r="D128" s="97" t="n">
-        <v>20</v>
-      </c>
-      <c r="E128" s="94" t="s">
-        <v>309</v>
-      </c>
-      <c r="F128" s="142" t="s">
-        <v>310</v>
-      </c>
-      <c r="H128" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I128" s="6"/>
-    </row>
-    <row r="129" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="141" t="s">
-        <v>311</v>
-      </c>
-      <c r="B129" s="93" t="n">
-        <v>273893</v>
-      </c>
-      <c r="C129" s="93" t="n">
-        <v>282480</v>
-      </c>
-      <c r="D129" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E129" s="94" t="s">
-        <v>312</v>
-      </c>
-      <c r="F129" s="142" t="s">
-        <v>313</v>
-      </c>
-      <c r="H129" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I129" s="6"/>
-    </row>
-    <row r="130" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="143" t="s">
-        <v>314</v>
-      </c>
-      <c r="B130" s="93" t="n">
-        <v>577804</v>
-      </c>
-      <c r="C130" s="93" t="n">
-        <v>581791</v>
-      </c>
-      <c r="D130" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E130" s="94" t="n">
-        <v>35821</v>
-      </c>
-      <c r="F130" s="95" t="s">
-        <v>315</v>
-      </c>
-      <c r="H130" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I130" s="6"/>
-    </row>
-    <row r="131" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="153" t="s">
-        <v>182</v>
-      </c>
-      <c r="B131" s="93" t="n">
-        <v>31155</v>
-      </c>
-      <c r="C131" s="93" t="n">
-        <v>32002</v>
-      </c>
-      <c r="D131" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E131" s="94" t="n">
-        <v>103473542</v>
-      </c>
-      <c r="F131" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="G131" s="89" t="n">
-        <v>12</v>
-      </c>
-      <c r="H131" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I131" s="6"/>
-    </row>
-    <row r="132" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="143" t="s">
-        <v>292</v>
-      </c>
-      <c r="B132" s="93" t="n">
-        <v>26789</v>
-      </c>
-      <c r="C132" s="93" t="n">
-        <v>27497</v>
-      </c>
-      <c r="D132" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E132" s="94" t="s">
-        <v>317</v>
-      </c>
-      <c r="F132" s="95" t="s">
-        <v>318</v>
-      </c>
-      <c r="G132" s="89" t="n">
-        <v>13</v>
-      </c>
-      <c r="H132" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I132" s="6"/>
-    </row>
-    <row r="133" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="143" t="s">
-        <v>319</v>
-      </c>
-      <c r="B133" s="93" t="n">
-        <v>46028</v>
-      </c>
-      <c r="C133" s="93" t="n">
-        <v>47078</v>
-      </c>
-      <c r="D133" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E133" s="94" t="s">
-        <v>320</v>
-      </c>
-      <c r="F133" s="95" t="s">
-        <v>321</v>
-      </c>
-      <c r="H133" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I133" s="6"/>
-    </row>
-    <row r="134" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="154" t="s">
-        <v>322</v>
-      </c>
-      <c r="B134" s="93" t="n">
-        <v>59811</v>
-      </c>
-      <c r="C134" s="93" t="n">
-        <v>59983</v>
-      </c>
-      <c r="D134" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E134" s="94" t="n">
-        <v>4616</v>
-      </c>
-      <c r="F134" s="95" t="s">
-        <v>558</v>
-      </c>
-      <c r="H134" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I134" s="6"/>
-    </row>
-    <row r="135" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="154" t="s">
-        <v>324</v>
-      </c>
-      <c r="B135" s="93" t="n">
-        <v>71117</v>
-      </c>
-      <c r="C135" s="93" t="n">
-        <v>72867</v>
-      </c>
-      <c r="D135" s="97" t="n">
-        <v>20</v>
-      </c>
-      <c r="E135" s="94" t="s">
-        <v>325</v>
-      </c>
-      <c r="F135" s="95" t="s">
-        <v>324</v>
-      </c>
-      <c r="H135" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I135" s="6"/>
-    </row>
-    <row r="136" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="154" t="s">
-        <v>326</v>
-      </c>
-      <c r="B136" s="93" t="n">
-        <v>73427</v>
-      </c>
-      <c r="C136" s="93" t="n">
-        <v>79338</v>
-      </c>
-      <c r="D136" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E136" s="94" t="s">
-        <v>327</v>
-      </c>
-      <c r="F136" s="95" t="s">
-        <v>328</v>
-      </c>
-      <c r="G136" s="89" t="n">
-        <v>14</v>
-      </c>
-      <c r="H136" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I136" s="6"/>
-    </row>
-    <row r="137" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="140" t="s">
-        <v>329</v>
-      </c>
-      <c r="B137" s="93" t="n">
-        <v>17863</v>
-      </c>
-      <c r="C137" s="93" t="n">
-        <v>18484</v>
-      </c>
-      <c r="D137" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E137" s="94" t="s">
-        <v>330</v>
-      </c>
-      <c r="F137" s="95" t="s">
-        <v>329</v>
-      </c>
-      <c r="H137" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I137" s="6"/>
-    </row>
-    <row r="138" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="154" t="s">
-        <v>326</v>
-      </c>
-      <c r="B138" s="93" t="n">
-        <v>14936</v>
-      </c>
-      <c r="C138" s="93" t="n">
-        <v>16580</v>
-      </c>
-      <c r="D138" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E138" s="94" t="s">
-        <v>331</v>
-      </c>
-      <c r="F138" s="95" t="s">
-        <v>332</v>
-      </c>
-      <c r="G138" s="89" t="n">
-        <v>14</v>
-      </c>
-      <c r="H138" s="55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I138" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="139"/>
-      <c r="B139" s="139"/>
-      <c r="C139" s="139"/>
-      <c r="D139" s="139"/>
-      <c r="E139" s="139"/>
-      <c r="F139" s="139"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
-    </row>
-    <row r="140" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="85" t="s">
-        <v>333</v>
-      </c>
-      <c r="B140" s="110" t="n">
-        <v>15809</v>
-      </c>
-      <c r="C140" s="110" t="n">
-        <v>16028</v>
-      </c>
-      <c r="D140" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E140" s="87" t="n">
-        <v>2262538</v>
-      </c>
-      <c r="F140" s="88" t="s">
-        <v>334</v>
-      </c>
-      <c r="H140" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I140" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="85" t="s">
-        <v>336</v>
-      </c>
-      <c r="B141" s="110" t="n">
-        <v>46181</v>
-      </c>
-      <c r="C141" s="110" t="n">
-        <v>46630</v>
-      </c>
-      <c r="D141" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E141" s="87" t="n">
-        <v>5521045</v>
-      </c>
-      <c r="F141" s="88" t="s">
-        <v>337</v>
-      </c>
-      <c r="H141" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I141" s="6"/>
-    </row>
-    <row r="142" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="85" t="s">
-        <v>338</v>
-      </c>
-      <c r="B142" s="110" t="n">
-        <v>38097</v>
-      </c>
-      <c r="C142" s="110" t="n">
-        <v>38457</v>
-      </c>
-      <c r="D142" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E142" s="87" t="n">
-        <v>2261340</v>
-      </c>
-      <c r="F142" s="88" t="s">
-        <v>339</v>
-      </c>
-      <c r="H142" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I142" s="6"/>
-    </row>
-    <row r="143" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="85" t="s">
-        <v>340</v>
-      </c>
-      <c r="B143" s="110" t="n">
-        <v>48251</v>
-      </c>
-      <c r="C143" s="110" t="n">
-        <v>48972</v>
-      </c>
-      <c r="D143" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E143" s="87" t="n">
-        <v>5510929</v>
-      </c>
-      <c r="F143" s="88" t="s">
-        <v>341</v>
-      </c>
-      <c r="H143" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I143" s="6"/>
-    </row>
-    <row r="144" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="85" t="s">
-        <v>342</v>
-      </c>
-      <c r="B144" s="110" t="n">
-        <v>70246</v>
-      </c>
-      <c r="C144" s="110" t="n">
-        <v>70635</v>
-      </c>
-      <c r="D144" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E144" s="87" t="n">
-        <v>5511505</v>
-      </c>
-      <c r="F144" s="88" t="s">
-        <v>343</v>
-      </c>
-      <c r="H144" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I144" s="6"/>
-    </row>
-    <row r="145" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="85" t="s">
-        <v>344</v>
-      </c>
-      <c r="B145" s="110" t="n">
-        <v>39798</v>
-      </c>
-      <c r="C145" s="110" t="n">
-        <v>39980</v>
-      </c>
-      <c r="D145" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E145" s="87" t="n">
-        <v>5510311</v>
-      </c>
-      <c r="F145" s="88" t="s">
-        <v>345</v>
-      </c>
-      <c r="H145" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I145" s="6"/>
-    </row>
-    <row r="146" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="85" t="s">
-        <v>346</v>
-      </c>
-      <c r="B146" s="110" t="n">
-        <v>50673</v>
-      </c>
-      <c r="C146" s="110" t="n">
-        <v>50943</v>
-      </c>
-      <c r="D146" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E146" s="87" t="n">
-        <v>5510177</v>
-      </c>
-      <c r="F146" s="88" t="s">
-        <v>347</v>
-      </c>
-      <c r="H146" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I146" s="6"/>
-    </row>
-    <row r="147" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="85" t="s">
-        <v>559</v>
-      </c>
-      <c r="B147" s="110" t="n">
-        <v>90776</v>
-      </c>
-      <c r="C147" s="110" t="n">
-        <v>91084</v>
-      </c>
-      <c r="D147" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E147" s="87" t="n">
-        <v>2262535</v>
-      </c>
-      <c r="F147" s="88" t="s">
-        <v>349</v>
-      </c>
-      <c r="H147" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I147" s="6"/>
-    </row>
-    <row r="148" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="85" t="s">
-        <v>350</v>
-      </c>
-      <c r="B148" s="110" t="n">
-        <v>48253</v>
-      </c>
-      <c r="C148" s="110" t="n">
-        <v>49116</v>
-      </c>
-      <c r="D148" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E148" s="87" t="s">
-        <v>351</v>
-      </c>
-      <c r="F148" s="88" t="s">
-        <v>352</v>
-      </c>
-      <c r="H148" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I148" s="6"/>
-    </row>
-    <row r="149" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="155" t="s">
-        <v>353</v>
-      </c>
-      <c r="B149" s="110" t="n">
-        <v>321141</v>
-      </c>
-      <c r="C149" s="110" t="n">
-        <v>331592</v>
-      </c>
-      <c r="D149" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E149" s="87" t="s">
-        <v>354</v>
-      </c>
-      <c r="F149" s="88" t="s">
-        <v>355</v>
-      </c>
-      <c r="G149" s="89" t="n">
-        <v>7</v>
-      </c>
-      <c r="H149" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I149" s="6"/>
-    </row>
-    <row r="150" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="155" t="s">
-        <v>353</v>
-      </c>
-      <c r="B150" s="156" t="n">
-        <v>2187</v>
-      </c>
-      <c r="C150" s="156" t="n">
-        <v>3737</v>
-      </c>
-      <c r="D150" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E150" s="157" t="s">
-        <v>356</v>
-      </c>
-      <c r="F150" s="88" t="s">
-        <v>355</v>
-      </c>
-      <c r="G150" s="89" t="n">
-        <v>7</v>
-      </c>
-      <c r="H150" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I150" s="6"/>
-    </row>
-    <row r="151" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="155" t="s">
-        <v>353</v>
-      </c>
-      <c r="B151" s="156" t="n">
-        <v>338</v>
-      </c>
-      <c r="C151" s="156" t="n">
-        <v>345</v>
-      </c>
-      <c r="D151" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E151" s="87" t="s">
-        <v>357</v>
-      </c>
-      <c r="F151" s="88" t="s">
-        <v>355</v>
-      </c>
-      <c r="G151" s="89" t="n">
-        <v>7</v>
-      </c>
-      <c r="H151" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I151" s="6"/>
-    </row>
-    <row r="152" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="158" t="s">
-        <v>358</v>
-      </c>
-      <c r="B152" s="156" t="n">
-        <v>28981</v>
-      </c>
-      <c r="C152" s="156" t="n">
-        <v>29310</v>
-      </c>
-      <c r="D152" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E152" s="87" t="n">
-        <v>5510402</v>
-      </c>
-      <c r="F152" s="88" t="s">
-        <v>359</v>
-      </c>
-      <c r="H152" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I152" s="6"/>
-    </row>
-    <row r="153" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="158" t="s">
-        <v>360</v>
-      </c>
-      <c r="B153" s="156" t="n">
-        <v>39000</v>
-      </c>
-      <c r="C153" s="156" t="n">
-        <v>39308</v>
-      </c>
-      <c r="D153" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E153" s="87" t="n">
-        <v>5509256</v>
-      </c>
-      <c r="F153" s="88" t="s">
-        <v>361</v>
-      </c>
-      <c r="H153" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I153" s="6"/>
-    </row>
-    <row r="154" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="158" t="s">
-        <v>362</v>
-      </c>
-      <c r="B154" s="156" t="n">
-        <v>35175</v>
-      </c>
-      <c r="C154" s="156" t="n">
-        <v>35744</v>
-      </c>
-      <c r="D154" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E154" s="87" t="n">
-        <v>5509265</v>
-      </c>
-      <c r="F154" s="88" t="s">
-        <v>363</v>
-      </c>
-      <c r="H154" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I154" s="6"/>
-    </row>
-    <row r="155" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="158" t="s">
-        <v>364</v>
-      </c>
-      <c r="B155" s="156" t="n">
-        <v>23901</v>
-      </c>
-      <c r="C155" s="156" t="n">
-        <v>24172</v>
-      </c>
-      <c r="D155" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E155" s="87" t="n">
-        <v>5518342</v>
-      </c>
-      <c r="F155" s="88" t="s">
-        <v>365</v>
-      </c>
-      <c r="H155" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I155" s="6"/>
-    </row>
-    <row r="156" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="158" t="s">
-        <v>366</v>
-      </c>
-      <c r="B156" s="156" t="n">
-        <v>26649</v>
-      </c>
-      <c r="C156" s="156" t="n">
-        <v>26984</v>
-      </c>
-      <c r="D156" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E156" s="87" t="n">
-        <v>2262004</v>
-      </c>
-      <c r="F156" s="88" t="s">
-        <v>367</v>
-      </c>
-      <c r="H156" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I156" s="6"/>
-    </row>
-    <row r="157" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="158" t="s">
-        <v>368</v>
-      </c>
-      <c r="B157" s="156" t="n">
-        <v>24134</v>
-      </c>
-      <c r="C157" s="156" t="n">
-        <v>24511</v>
-      </c>
-      <c r="D157" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E157" s="87" t="n">
-        <v>2262573</v>
-      </c>
-      <c r="F157" s="88" t="s">
-        <v>369</v>
-      </c>
-      <c r="H157" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I157" s="6"/>
-    </row>
-    <row r="158" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="158" t="s">
-        <v>370</v>
-      </c>
-      <c r="B158" s="156" t="n">
-        <v>63843</v>
-      </c>
-      <c r="C158" s="156" t="n">
-        <v>64273</v>
-      </c>
-      <c r="D158" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E158" s="87" t="n">
-        <v>2262504</v>
-      </c>
-      <c r="F158" s="88" t="s">
-        <v>371</v>
-      </c>
-      <c r="H158" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I158" s="6"/>
-    </row>
-    <row r="159" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="158" t="s">
-        <v>372</v>
-      </c>
-      <c r="B159" s="156" t="n">
-        <v>15421</v>
-      </c>
-      <c r="C159" s="156" t="n">
-        <v>15596</v>
-      </c>
-      <c r="D159" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E159" s="87" t="n">
-        <v>282333</v>
-      </c>
-      <c r="F159" s="88" t="s">
-        <v>373</v>
-      </c>
-      <c r="H159" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I159" s="6"/>
-    </row>
-    <row r="160" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="159" t="s">
-        <v>374</v>
-      </c>
-      <c r="B160" s="160" t="n">
-        <v>51370</v>
-      </c>
-      <c r="C160" s="160" t="n">
-        <v>51896</v>
-      </c>
-      <c r="D160" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E160" s="87" t="n">
-        <v>2261380</v>
-      </c>
-      <c r="F160" s="88" t="s">
-        <v>375</v>
-      </c>
-      <c r="H160" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I160" s="6"/>
-    </row>
-    <row r="161" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="158" t="s">
-        <v>376</v>
-      </c>
-      <c r="B161" s="156" t="n">
-        <v>42066</v>
-      </c>
-      <c r="C161" s="156" t="n">
-        <v>42066</v>
-      </c>
-      <c r="D161" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E161" s="87" t="n">
-        <v>3263</v>
-      </c>
-      <c r="F161" s="88" t="s">
-        <v>377</v>
-      </c>
-      <c r="H161" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I161" s="6"/>
-    </row>
-    <row r="162" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="158" t="s">
-        <v>378</v>
-      </c>
-      <c r="B162" s="156" t="n">
-        <v>964</v>
-      </c>
-      <c r="C162" s="156" t="n">
-        <v>1018</v>
-      </c>
-      <c r="D162" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E162" s="87" t="s">
-        <v>379</v>
-      </c>
-      <c r="F162" s="88" t="s">
-        <v>380</v>
-      </c>
-      <c r="H162" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I162" s="6"/>
-    </row>
-    <row r="163" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="158" t="s">
-        <v>381</v>
-      </c>
-      <c r="B163" s="156" t="n">
-        <v>11383</v>
-      </c>
-      <c r="C163" s="156" t="n">
-        <v>11800</v>
-      </c>
-      <c r="D163" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E163" s="87" t="s">
-        <v>382</v>
-      </c>
-      <c r="F163" s="88" t="s">
-        <v>383</v>
-      </c>
-      <c r="H163" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I163" s="6"/>
-    </row>
-    <row r="164" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="158" t="s">
-        <v>384</v>
-      </c>
-      <c r="B164" s="156" t="n">
-        <v>110996</v>
-      </c>
-      <c r="C164" s="156" t="n">
-        <v>111567</v>
-      </c>
-      <c r="D164" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E164" s="87" t="s">
-        <v>385</v>
-      </c>
-      <c r="F164" s="88" t="s">
-        <v>386</v>
-      </c>
-      <c r="H164" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I164" s="6"/>
-    </row>
-    <row r="165" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="158" t="s">
-        <v>387</v>
-      </c>
-      <c r="B165" s="156" t="n">
-        <v>261668</v>
-      </c>
-      <c r="C165" s="156" t="n">
-        <v>263574</v>
-      </c>
-      <c r="D165" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E165" s="87" t="s">
-        <v>388</v>
-      </c>
-      <c r="F165" s="88" t="s">
-        <v>389</v>
-      </c>
-      <c r="H165" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I165" s="6"/>
-    </row>
-    <row r="166" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="158" t="s">
-        <v>390</v>
-      </c>
-      <c r="B166" s="156" t="n">
-        <v>73340</v>
-      </c>
-      <c r="C166" s="156" t="n">
-        <v>74824</v>
-      </c>
-      <c r="D166" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E166" s="87" t="n">
-        <v>2261167</v>
-      </c>
-      <c r="F166" s="88" t="s">
-        <v>391</v>
-      </c>
-      <c r="H166" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I166" s="6"/>
-    </row>
-    <row r="167" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="158" t="s">
-        <v>392</v>
-      </c>
-      <c r="B167" s="156" t="n">
-        <v>5158</v>
-      </c>
-      <c r="C167" s="156" t="n">
-        <v>5622</v>
-      </c>
-      <c r="D167" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E167" s="87" t="s">
-        <v>393</v>
-      </c>
-      <c r="F167" s="88" t="s">
-        <v>394</v>
-      </c>
-      <c r="H167" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I167" s="6"/>
-    </row>
-    <row r="168" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="158" t="s">
-        <v>395</v>
-      </c>
-      <c r="B168" s="156" t="n">
-        <v>13957</v>
-      </c>
-      <c r="C168" s="156" t="n">
-        <v>14006</v>
-      </c>
-      <c r="D168" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E168" s="87" t="n">
-        <v>370293</v>
-      </c>
-      <c r="F168" s="88" t="s">
-        <v>396</v>
-      </c>
-      <c r="H168" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I168" s="6"/>
-    </row>
-    <row r="169" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="34" t="s">
-        <v>397</v>
-      </c>
-      <c r="B169" s="75" t="n">
-        <v>6544</v>
-      </c>
-      <c r="C169" s="75" t="n">
-        <v>6544</v>
-      </c>
-      <c r="D169" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E169" s="25" t="n">
-        <v>1940</v>
-      </c>
-      <c r="F169" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="H169" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I169" s="6"/>
-    </row>
-    <row r="170" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="161" t="s">
-        <v>399</v>
-      </c>
-      <c r="B170" s="113" t="n">
-        <v>19154</v>
-      </c>
-      <c r="C170" s="113" t="n">
-        <v>19560</v>
-      </c>
-      <c r="D170" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E170" s="87" t="s">
-        <v>400</v>
-      </c>
-      <c r="F170" s="88" t="s">
-        <v>401</v>
-      </c>
-      <c r="H170" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I170" s="6"/>
-    </row>
-    <row r="171" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="158" t="s">
-        <v>402</v>
-      </c>
-      <c r="B171" s="124" t="n">
-        <v>4649</v>
-      </c>
-      <c r="C171" s="124" t="n">
-        <v>4740</v>
-      </c>
-      <c r="D171" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E171" s="87" t="s">
-        <v>403</v>
-      </c>
-      <c r="F171" s="88" t="s">
-        <v>404</v>
-      </c>
-      <c r="H171" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I171" s="6"/>
-    </row>
-    <row r="172" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="161" t="s">
-        <v>405</v>
-      </c>
-      <c r="B172" s="113" t="n">
-        <v>9676</v>
-      </c>
-      <c r="C172" s="113" t="n">
-        <v>9782</v>
-      </c>
-      <c r="D172" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E172" s="87" t="s">
-        <v>406</v>
-      </c>
-      <c r="F172" s="88" t="s">
-        <v>407</v>
-      </c>
-      <c r="H172" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="I172" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="139"/>
-      <c r="B173" s="139"/>
-      <c r="C173" s="139"/>
-      <c r="D173" s="139"/>
-      <c r="E173" s="139"/>
-      <c r="F173" s="139"/>
-      <c r="H173" s="6"/>
-      <c r="I173" s="6"/>
-    </row>
-    <row r="174" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="159" t="s">
-        <v>408</v>
-      </c>
-      <c r="B174" s="124" t="n">
-        <v>51705</v>
-      </c>
-      <c r="C174" s="124" t="n">
-        <v>54074</v>
-      </c>
-      <c r="D174" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E174" s="87" t="s">
-        <v>409</v>
-      </c>
-      <c r="F174" s="88" t="s">
-        <v>410</v>
-      </c>
-      <c r="H174" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I174" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="162" t="s">
-        <v>412</v>
-      </c>
-      <c r="B175" s="163" t="n">
-        <v>51435</v>
-      </c>
-      <c r="C175" s="163" t="n">
-        <v>51774</v>
-      </c>
-      <c r="D175" s="163" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" s="149" t="n">
-        <v>3855</v>
-      </c>
-      <c r="F175" s="88" t="s">
-        <v>413</v>
-      </c>
-      <c r="G175" s="89" t="n">
-        <v>8</v>
-      </c>
-      <c r="H175" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I175" s="6"/>
-    </row>
-    <row r="176" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="162" t="s">
-        <v>412</v>
-      </c>
-      <c r="B176" s="163" t="n">
-        <v>122957</v>
-      </c>
-      <c r="C176" s="163" t="n">
-        <v>127446</v>
-      </c>
-      <c r="D176" s="163" t="n">
-        <v>1</v>
-      </c>
-      <c r="E176" s="87" t="s">
-        <v>414</v>
-      </c>
-      <c r="F176" s="88" t="s">
-        <v>413</v>
-      </c>
-      <c r="G176" s="89" t="n">
-        <v>8</v>
-      </c>
-      <c r="H176" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I176" s="6"/>
-    </row>
-    <row r="177" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="158" t="s">
-        <v>415</v>
-      </c>
-      <c r="B177" s="124" t="n">
-        <v>16293</v>
-      </c>
-      <c r="C177" s="124" t="n">
-        <v>16443</v>
-      </c>
-      <c r="D177" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E177" s="87" t="s">
-        <v>416</v>
-      </c>
-      <c r="F177" s="88" t="s">
-        <v>417</v>
-      </c>
-      <c r="H177" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I177" s="6"/>
-    </row>
-    <row r="178" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="158" t="s">
-        <v>418</v>
-      </c>
-      <c r="B178" s="124" t="n">
-        <v>19059</v>
-      </c>
-      <c r="C178" s="124" t="n">
-        <v>19322</v>
-      </c>
-      <c r="D178" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E178" s="87" t="s">
-        <v>419</v>
-      </c>
-      <c r="F178" s="88" t="s">
-        <v>420</v>
-      </c>
-      <c r="H178" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I178" s="6"/>
-    </row>
-    <row r="179" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="158" t="s">
-        <v>421</v>
-      </c>
-      <c r="B179" s="124" t="n">
-        <v>18836</v>
-      </c>
-      <c r="C179" s="124" t="n">
-        <v>19058</v>
-      </c>
-      <c r="D179" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E179" s="87" t="s">
-        <v>422</v>
-      </c>
-      <c r="F179" s="88" t="s">
-        <v>423</v>
-      </c>
-      <c r="H179" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I179" s="6"/>
-    </row>
-    <row r="180" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="158" t="s">
-        <v>424</v>
-      </c>
-      <c r="B180" s="124" t="n">
-        <v>22322</v>
-      </c>
-      <c r="C180" s="124" t="n">
-        <v>22590</v>
-      </c>
-      <c r="D180" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E180" s="87" t="s">
-        <v>425</v>
-      </c>
-      <c r="F180" s="88" t="s">
-        <v>426</v>
-      </c>
-      <c r="H180" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I180" s="6"/>
-    </row>
-    <row r="181" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="158" t="s">
-        <v>427</v>
-      </c>
-      <c r="B181" s="124" t="n">
-        <v>21550</v>
-      </c>
-      <c r="C181" s="124" t="n">
-        <v>21736</v>
-      </c>
-      <c r="D181" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E181" s="87" t="s">
-        <v>428</v>
-      </c>
-      <c r="F181" s="88" t="s">
-        <v>429</v>
-      </c>
-      <c r="H181" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I181" s="6"/>
-    </row>
-    <row r="182" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="164" t="s">
-        <v>430</v>
-      </c>
-      <c r="B182" s="124" t="n">
-        <v>38151</v>
-      </c>
-      <c r="C182" s="124" t="n">
-        <v>38729</v>
-      </c>
-      <c r="D182" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E182" s="87" t="s">
-        <v>431</v>
-      </c>
-      <c r="F182" s="88" t="s">
-        <v>432</v>
-      </c>
-      <c r="G182" s="89" t="n">
-        <v>9</v>
-      </c>
-      <c r="H182" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I182" s="6"/>
-    </row>
-    <row r="183" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="164" t="s">
-        <v>430</v>
-      </c>
-      <c r="B183" s="124" t="n">
-        <v>10181</v>
-      </c>
-      <c r="C183" s="124" t="n">
-        <v>10329</v>
-      </c>
-      <c r="D183" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E183" s="87" t="s">
-        <v>433</v>
-      </c>
-      <c r="F183" s="88" t="s">
-        <v>434</v>
-      </c>
-      <c r="G183" s="89" t="n">
-        <v>9</v>
-      </c>
-      <c r="H183" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I183" s="6"/>
-    </row>
-    <row r="184" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="158" t="s">
-        <v>435</v>
-      </c>
-      <c r="B184" s="124" t="n">
-        <v>93143</v>
-      </c>
-      <c r="C184" s="124" t="n">
-        <v>94156</v>
-      </c>
-      <c r="D184" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E184" s="87" t="s">
-        <v>436</v>
-      </c>
-      <c r="F184" s="88" t="s">
-        <v>437</v>
-      </c>
-      <c r="H184" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I184" s="6"/>
-    </row>
-    <row r="185" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="158" t="s">
-        <v>438</v>
-      </c>
-      <c r="B185" s="124" t="n">
-        <v>43348</v>
-      </c>
-      <c r="C185" s="124" t="n">
-        <v>43820</v>
-      </c>
-      <c r="D185" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E185" s="87" t="s">
-        <v>439</v>
-      </c>
-      <c r="F185" s="88" t="s">
-        <v>440</v>
-      </c>
-      <c r="H185" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I185" s="6"/>
-    </row>
-    <row r="186" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="158" t="s">
-        <v>441</v>
-      </c>
-      <c r="B186" s="124" t="n">
-        <v>9726</v>
-      </c>
-      <c r="C186" s="124" t="n">
-        <v>9805</v>
-      </c>
-      <c r="D186" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E186" s="87" t="s">
-        <v>442</v>
-      </c>
-      <c r="F186" s="88" t="s">
-        <v>443</v>
-      </c>
-      <c r="H186" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I186" s="6"/>
-    </row>
-    <row r="187" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="158" t="s">
-        <v>444</v>
-      </c>
-      <c r="B187" s="124" t="n">
-        <v>15474</v>
-      </c>
-      <c r="C187" s="124" t="n">
-        <v>15474</v>
-      </c>
-      <c r="D187" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E187" s="87" t="s">
-        <v>445</v>
-      </c>
-      <c r="F187" s="88" t="s">
-        <v>446</v>
-      </c>
-      <c r="H187" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I187" s="6"/>
-    </row>
-    <row r="188" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="158" t="s">
-        <v>447</v>
-      </c>
-      <c r="B188" s="124" t="n">
-        <v>25574</v>
-      </c>
-      <c r="C188" s="124" t="n">
-        <v>26359</v>
-      </c>
-      <c r="D188" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E188" s="87" t="s">
-        <v>448</v>
-      </c>
-      <c r="F188" s="88" t="s">
-        <v>449</v>
-      </c>
-      <c r="H188" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I188" s="6"/>
-    </row>
-    <row r="189" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="158" t="s">
-        <v>450</v>
-      </c>
-      <c r="B189" s="124" t="n">
-        <v>15243</v>
-      </c>
-      <c r="C189" s="124" t="n">
-        <v>16205</v>
-      </c>
-      <c r="D189" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E189" s="87" t="s">
-        <v>451</v>
-      </c>
-      <c r="F189" s="88" t="s">
-        <v>452</v>
-      </c>
-      <c r="H189" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I189" s="6"/>
-    </row>
-    <row r="190" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="158" t="s">
-        <v>453</v>
-      </c>
-      <c r="B190" s="124" t="n">
-        <v>17615</v>
-      </c>
-      <c r="C190" s="124" t="n">
-        <v>17872</v>
-      </c>
-      <c r="D190" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E190" s="87" t="s">
-        <v>454</v>
-      </c>
-      <c r="F190" s="88" t="s">
-        <v>455</v>
-      </c>
-      <c r="H190" s="82" t="n">
-        <v>7</v>
-      </c>
-      <c r="I190" s="6"/>
-    </row>
-    <row r="191" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="158" t="s">
-        <v>456</v>
-      </c>
-      <c r="B191" s="124" t="n">
-        <v>46343</v>
-      </c>
-      <c r="C191" s="124" t="n">
-        <v>46574</v>
-      </c>
-      <c r="D191" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E191" s="87" t="s">
-        <v>457</v>
-      </c>
-      <c r="F191" s="88" t="s">
-        <v>458</v>
-      </c>
-      <c r="H191" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I191" s="6"/>
-    </row>
-    <row r="192" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="158" t="s">
-        <v>459</v>
-      </c>
-      <c r="B192" s="124" t="n">
-        <v>25111</v>
-      </c>
-      <c r="C192" s="124" t="n">
-        <v>25470</v>
-      </c>
-      <c r="D192" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E192" s="87" t="s">
-        <v>460</v>
-      </c>
-      <c r="F192" s="88" t="s">
-        <v>461</v>
-      </c>
-      <c r="H192" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I192" s="6"/>
-    </row>
-    <row r="193" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="158" t="s">
-        <v>462</v>
-      </c>
-      <c r="B193" s="124" t="n">
-        <v>36546</v>
-      </c>
-      <c r="C193" s="124" t="n">
-        <v>36944</v>
-      </c>
-      <c r="D193" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E193" s="87" t="s">
-        <v>463</v>
-      </c>
-      <c r="F193" s="88" t="s">
-        <v>464</v>
-      </c>
-      <c r="H193" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I193" s="6"/>
-    </row>
-    <row r="194" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="158" t="s">
-        <v>465</v>
-      </c>
-      <c r="B194" s="165" t="n">
-        <v>66445</v>
-      </c>
-      <c r="C194" s="165" t="n">
-        <v>66445</v>
-      </c>
-      <c r="D194" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E194" s="87" t="s">
-        <v>466</v>
-      </c>
-      <c r="F194" s="88" t="s">
-        <v>467</v>
-      </c>
-      <c r="H194" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I194" s="6"/>
-    </row>
-    <row r="195" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="158" t="s">
-        <v>468</v>
-      </c>
-      <c r="B195" s="113" t="n">
-        <v>77913</v>
-      </c>
-      <c r="C195" s="113" t="n">
-        <v>79199</v>
-      </c>
-      <c r="D195" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E195" s="87" t="s">
-        <v>469</v>
-      </c>
-      <c r="F195" s="88" t="s">
-        <v>470</v>
-      </c>
-      <c r="H195" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I195" s="6"/>
-    </row>
-    <row r="196" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="158" t="s">
-        <v>471</v>
-      </c>
-      <c r="B196" s="124" t="n">
-        <v>61833</v>
-      </c>
-      <c r="C196" s="124" t="n">
-        <v>62761</v>
-      </c>
-      <c r="D196" s="113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E196" s="87" t="s">
-        <v>472</v>
-      </c>
-      <c r="F196" s="88" t="s">
-        <v>473</v>
-      </c>
-      <c r="H196" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I196" s="6"/>
-    </row>
-    <row r="197" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="158" t="s">
-        <v>560</v>
-      </c>
-      <c r="B197" s="124" t="n">
-        <v>47733</v>
-      </c>
-      <c r="C197" s="124" t="n">
-        <v>49361</v>
-      </c>
-      <c r="D197" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E197" s="87" t="s">
-        <v>475</v>
-      </c>
-      <c r="F197" s="88" t="s">
-        <v>476</v>
-      </c>
-      <c r="H197" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I197" s="6"/>
-    </row>
-    <row r="198" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="158" t="s">
-        <v>477</v>
-      </c>
-      <c r="B198" s="124" t="n">
-        <v>57578</v>
-      </c>
-      <c r="C198" s="124" t="n">
-        <v>58187</v>
-      </c>
-      <c r="D198" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" s="87" t="s">
-        <v>478</v>
-      </c>
-      <c r="F198" s="88" t="s">
-        <v>479</v>
-      </c>
-      <c r="H198" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I198" s="6"/>
-    </row>
-    <row r="199" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="158" t="s">
-        <v>480</v>
-      </c>
-      <c r="B199" s="124" t="n">
-        <v>180914</v>
-      </c>
-      <c r="C199" s="124" t="n">
-        <v>181790</v>
-      </c>
-      <c r="D199" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" s="87" t="s">
-        <v>481</v>
-      </c>
-      <c r="F199" s="88" t="s">
-        <v>482</v>
-      </c>
-      <c r="H199" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I199" s="6"/>
-    </row>
-    <row r="200" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="158" t="s">
-        <v>483</v>
-      </c>
-      <c r="B200" s="113" t="n">
-        <v>59720</v>
-      </c>
-      <c r="C200" s="113" t="n">
-        <v>60596</v>
-      </c>
-      <c r="D200" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E200" s="87" t="s">
-        <v>484</v>
-      </c>
-      <c r="F200" s="88" t="s">
-        <v>485</v>
-      </c>
-      <c r="H200" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I200" s="6"/>
-    </row>
-    <row r="201" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="158" t="s">
-        <v>486</v>
-      </c>
-      <c r="B201" s="113" t="n">
-        <v>34377</v>
-      </c>
-      <c r="C201" s="113" t="n">
-        <v>34738</v>
-      </c>
-      <c r="D201" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E201" s="87" t="s">
-        <v>487</v>
-      </c>
-      <c r="F201" s="88" t="s">
-        <v>488</v>
-      </c>
-      <c r="H201" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I201" s="6"/>
-    </row>
-    <row r="202" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="158" t="s">
-        <v>489</v>
-      </c>
-      <c r="B202" s="113" t="n">
-        <v>17756</v>
-      </c>
-      <c r="C202" s="113" t="n">
-        <v>18124</v>
-      </c>
-      <c r="D202" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E202" s="87" t="s">
-        <v>490</v>
-      </c>
-      <c r="F202" s="88" t="s">
-        <v>491</v>
-      </c>
-      <c r="H202" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I202" s="6"/>
-    </row>
-    <row r="203" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="158" t="s">
-        <v>492</v>
-      </c>
-      <c r="B203" s="113" t="n">
-        <v>245588</v>
-      </c>
-      <c r="C203" s="113" t="n">
-        <v>246588</v>
-      </c>
-      <c r="D203" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E203" s="87" t="s">
-        <v>493</v>
-      </c>
-      <c r="F203" s="88" t="s">
-        <v>494</v>
-      </c>
-      <c r="H203" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I203" s="6"/>
-    </row>
-    <row r="204" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="158" t="s">
-        <v>495</v>
-      </c>
-      <c r="B204" s="113" t="n">
-        <v>44861</v>
-      </c>
-      <c r="C204" s="113" t="n">
-        <v>45499</v>
-      </c>
-      <c r="D204" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E204" s="87" t="s">
-        <v>496</v>
-      </c>
-      <c r="F204" s="88" t="s">
-        <v>497</v>
-      </c>
-      <c r="H204" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I204" s="6"/>
-    </row>
-    <row r="205" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="162" t="s">
-        <v>498</v>
-      </c>
-      <c r="B205" s="113" t="n">
-        <v>37965</v>
-      </c>
-      <c r="C205" s="113" t="n">
-        <v>39614</v>
-      </c>
-      <c r="D205" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E205" s="87" t="s">
-        <v>499</v>
-      </c>
-      <c r="F205" s="88" t="s">
-        <v>500</v>
-      </c>
-      <c r="G205" s="89" t="n">
-        <v>10</v>
-      </c>
-      <c r="H205" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I205" s="6"/>
-    </row>
-    <row r="206" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="162" t="s">
-        <v>498</v>
-      </c>
-      <c r="B206" s="113" t="n">
-        <v>29028</v>
-      </c>
-      <c r="C206" s="113" t="n">
-        <v>30930</v>
-      </c>
-      <c r="D206" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E206" s="87" t="s">
-        <v>501</v>
-      </c>
-      <c r="F206" s="88" t="s">
-        <v>500</v>
-      </c>
-      <c r="G206" s="89" t="n">
-        <v>10</v>
-      </c>
-      <c r="H206" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I206" s="6"/>
-    </row>
-    <row r="207" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="158" t="s">
-        <v>502</v>
-      </c>
-      <c r="B207" s="113" t="n">
-        <v>118529</v>
-      </c>
-      <c r="C207" s="113" t="n">
-        <v>126283</v>
-      </c>
-      <c r="D207" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E207" s="87" t="s">
-        <v>503</v>
-      </c>
-      <c r="F207" s="88" t="s">
-        <v>504</v>
-      </c>
-      <c r="H207" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I207" s="6"/>
-    </row>
-    <row r="208" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="158" t="s">
-        <v>505</v>
-      </c>
-      <c r="B208" s="113" t="n">
-        <v>66471</v>
-      </c>
-      <c r="C208" s="113" t="n">
-        <v>67377</v>
-      </c>
-      <c r="D208" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E208" s="87" t="s">
-        <v>506</v>
-      </c>
-      <c r="F208" s="88" t="s">
-        <v>507</v>
-      </c>
-      <c r="H208" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="I208" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="85" t="s">
-        <v>508</v>
-      </c>
-      <c r="B210" s="113" t="n">
-        <v>47195</v>
-      </c>
-      <c r="C210" s="113" t="n">
-        <v>50021</v>
-      </c>
-      <c r="D210" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E210" s="87" t="n">
-        <v>3275</v>
-      </c>
-      <c r="F210" s="88" t="s">
-        <v>509</v>
-      </c>
-      <c r="H210" s="90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" s="91" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="85" t="s">
-        <v>511</v>
-      </c>
-      <c r="B212" s="113" t="n">
-        <v>189525</v>
-      </c>
-      <c r="C212" s="113" t="n">
-        <v>191022</v>
-      </c>
-      <c r="D212" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E212" s="87" t="n">
-        <v>3868</v>
-      </c>
-      <c r="F212" s="88" t="s">
-        <v>512</v>
-      </c>
-      <c r="H212" s="90" t="n">
-        <v>3</v>
-      </c>
-      <c r="I212" s="6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.85"/>
@@ -16567,39 +10131,39 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="166" t="s">
-        <v>561</v>
-      </c>
-      <c r="B1" s="166" t="s">
+      <c r="A1" s="92" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="167" t="s">
-        <v>562</v>
-      </c>
-      <c r="D1" s="167"/>
-      <c r="E1" s="168" t="s">
-        <v>563</v>
-      </c>
-      <c r="F1" s="168"/>
+      <c r="C1" s="93" t="s">
+        <v>515</v>
+      </c>
+      <c r="D1" s="93"/>
+      <c r="E1" s="94" t="s">
+        <v>516</v>
+      </c>
+      <c r="F1" s="94"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="166"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="169" t="s">
-        <v>564</v>
-      </c>
-      <c r="D2" s="169" t="s">
-        <v>565</v>
-      </c>
-      <c r="E2" s="170" t="s">
-        <v>564</v>
-      </c>
-      <c r="F2" s="170" t="s">
-        <v>565</v>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="95" t="s">
+        <v>517</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>518</v>
+      </c>
+      <c r="E2" s="96" t="s">
+        <v>517</v>
+      </c>
+      <c r="F2" s="96" t="s">
+        <v>518</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -16613,16 +10177,16 @@
       <c r="B3" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="C3" s="171" t="n">
-        <v>77913</v>
-      </c>
-      <c r="D3" s="171" t="n">
+      <c r="C3" s="30" t="n">
         <v>79199</v>
       </c>
-      <c r="E3" s="172" t="n">
+      <c r="D3" s="30" t="n">
+        <v>80579</v>
+      </c>
+      <c r="E3" s="97" t="n">
         <v>61833</v>
       </c>
-      <c r="F3" s="172" t="n">
+      <c r="F3" s="97" t="n">
         <v>62761</v>
       </c>
       <c r="G3" s="6"/>
@@ -16637,16 +10201,16 @@
       <c r="B4" s="22" t="s">
         <v>473</v>
       </c>
-      <c r="C4" s="173" t="n">
-        <v>61833</v>
-      </c>
-      <c r="D4" s="173" t="n">
+      <c r="C4" s="42" t="n">
         <v>62761</v>
       </c>
-      <c r="E4" s="174" t="n">
+      <c r="D4" s="42" t="n">
+        <v>63603</v>
+      </c>
+      <c r="E4" s="98" t="n">
         <v>77913</v>
       </c>
-      <c r="F4" s="174" t="n">
+      <c r="F4" s="98" t="n">
         <v>79199</v>
       </c>
       <c r="G4" s="6"/>
@@ -16655,10 +10219,10 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -16671,16 +10235,16 @@
       <c r="B6" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="C6" s="171" t="n">
-        <v>37965</v>
-      </c>
-      <c r="D6" s="171" t="n">
+      <c r="C6" s="30" t="n">
         <v>39614</v>
       </c>
-      <c r="E6" s="174" t="n">
+      <c r="D6" s="30" t="n">
+        <v>41219</v>
+      </c>
+      <c r="E6" s="98" t="n">
         <v>29028</v>
       </c>
-      <c r="F6" s="174" t="n">
+      <c r="F6" s="98" t="n">
         <v>30930</v>
       </c>
       <c r="G6" s="6"/>
@@ -16695,16 +10259,16 @@
       <c r="B7" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="C7" s="171" t="n">
-        <v>29028</v>
-      </c>
-      <c r="D7" s="171" t="n">
+      <c r="C7" s="30" t="n">
         <v>30930</v>
       </c>
-      <c r="E7" s="174" t="n">
+      <c r="D7" s="30" t="n">
+        <v>32775</v>
+      </c>
+      <c r="E7" s="98" t="n">
         <v>37965</v>
       </c>
-      <c r="F7" s="174" t="n">
+      <c r="F7" s="98" t="n">
         <v>39614</v>
       </c>
       <c r="G7" s="6"/>
@@ -16713,10 +10277,10 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -16729,16 +10293,16 @@
       <c r="B9" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="C9" s="179" t="n">
-        <v>51435</v>
-      </c>
-      <c r="D9" s="179" t="n">
+      <c r="C9" s="81" t="n">
         <v>51774</v>
       </c>
-      <c r="E9" s="180" t="n">
+      <c r="D9" s="81" t="n">
+        <v>52094</v>
+      </c>
+      <c r="E9" s="103" t="n">
         <v>122957</v>
       </c>
-      <c r="F9" s="180" t="n">
+      <c r="F9" s="103" t="n">
         <v>127446</v>
       </c>
       <c r="G9" s="6"/>
@@ -16753,16 +10317,16 @@
       <c r="B10" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="C10" s="179" t="n">
-        <v>122957</v>
-      </c>
-      <c r="D10" s="179" t="n">
+      <c r="C10" s="81" t="n">
         <v>127446</v>
       </c>
-      <c r="E10" s="180" t="n">
+      <c r="D10" s="81" t="n">
+        <v>132226</v>
+      </c>
+      <c r="E10" s="103" t="n">
         <v>51435</v>
       </c>
-      <c r="F10" s="180" t="n">
+      <c r="F10" s="103" t="n">
         <v>51774</v>
       </c>
       <c r="G10" s="6"/>
@@ -16855,96 +10419,48 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
